--- a/Day 5 Assignment.xlsx
+++ b/Day 5 Assignment.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GUVI Assignment_01\GUVI-Assignments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D59F1397-E6E5-4204-ADAC-F93010663FA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF734CE0-604B-4FD6-83F6-6D0F9A4EA90E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="219">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -59,9 +59,6 @@
   </si>
   <si>
     <t>Comments</t>
-  </si>
-  <si>
-    <t>(TS_001) Sign in Functionality</t>
   </si>
   <si>
     <t>1.open the aaplication(https://in.bookmyshow.com/)</t>
@@ -70,10 +67,6 @@
     <t xml:space="preserve">
 1.click on signin button(ER 1)
 2.select continue with google option(ER 2)</t>
-  </si>
-  <si>
-    <t>1.User should  get the sign in option page
-2.user should able to login to bookmyshow page without any permission</t>
   </si>
   <si>
     <t>1.user should get the OTP for registered phone number
@@ -99,9 +92,6 @@
     <t>validate the search functionality</t>
   </si>
   <si>
-    <t>(TS_003) Sign out Functionality</t>
-  </si>
-  <si>
     <t>1.click on the search option
 2.enter the movie name/or anything and click enter</t>
   </si>
@@ -145,9 +135,6 @@
   </si>
   <si>
     <t>1.check the search option placeholders are displaying</t>
-  </si>
-  <si>
-    <t>(TS_004)search functionality</t>
   </si>
   <si>
     <t>validate the verfication mail sent to the registered mail address</t>
@@ -281,9 +268,6 @@
     <t>validate the user can update the name, email address, phone number, gender, date of birth and address in their profile</t>
   </si>
   <si>
-    <t>(TS_002) updateprofile  Functionality</t>
-  </si>
-  <si>
     <t>validate the user can upload and remove the picture</t>
   </si>
   <si>
@@ -355,9 +339,6 @@
   </si>
   <si>
     <t>user should see the placeholders in search option</t>
-  </si>
-  <si>
-    <t>(TS_005)Ticket Booking functionality</t>
   </si>
   <si>
     <t>1.select the movie language ,genres,format using filter option 
@@ -446,12 +427,369 @@
 3.select the number of seats and seat row
 4.check the pay option</t>
   </si>
+  <si>
+    <t>validate the user can able to create the new account using valid credientals</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.click on create the account
+2.Enter the  required fields, such as name, email address, and password.
+3.click on create
+</t>
+  </si>
+  <si>
+    <t>user should able to create the new account</t>
+  </si>
+  <si>
+    <t>validate the user can able to create the new account using invalid user ID and password</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.click on create the account
+2.Enter the  invalid emailID and password
+3.click on create
+</t>
+  </si>
+  <si>
+    <t>Error msg should display "invalid password and emailID"</t>
+  </si>
+  <si>
+    <t>validate the user can able to create the new account using exiting email ID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.click on create the account
+2.Enter the  existing invalid emailID 
+3.click onenter
+</t>
+  </si>
+  <si>
+    <t>user get the error message "existing mail ID create the new one"</t>
+  </si>
+  <si>
+    <t>User should get the verification mail</t>
+  </si>
+  <si>
+    <t>validate the from address and OTP sent to the registered mail ID</t>
+  </si>
+  <si>
+    <t>1.check the verification mail
+2.enter the OTP
+3.click enter</t>
+  </si>
+  <si>
+    <t>Validate the verification mail sent to the registered mailId</t>
+  </si>
+  <si>
+    <t>1.user should get the mail from book my show defauld mail address
+2.OTP verified and user able to login</t>
+  </si>
+  <si>
+    <t>validate the user prompted to give the strong password creating new account</t>
+  </si>
+  <si>
+    <t>1..Enter the emailID
+2.create the password</t>
+  </si>
+  <si>
+    <t xml:space="preserve">user should able to create the strong password </t>
+  </si>
+  <si>
+    <t>validate the password field hide its visibility after entering the password</t>
+  </si>
+  <si>
+    <t>1.create the password
+2.check the password feld</t>
+  </si>
+  <si>
+    <t>password should hide its visibility</t>
+  </si>
+  <si>
+    <t>(TS_002) Sign in Functionality</t>
+  </si>
+  <si>
+    <t>(TS_003) updateprofile  Functionality</t>
+  </si>
+  <si>
+    <t>(TS_004) Sign out Functionality</t>
+  </si>
+  <si>
+    <t>(TS_005)search functionality</t>
+  </si>
+  <si>
+    <t>(TS_006)Ticket Booking functionality</t>
+  </si>
+  <si>
+    <t>xxxx</t>
+  </si>
+  <si>
+    <t>hh</t>
+  </si>
+  <si>
+    <t>High</t>
+  </si>
+  <si>
+    <t>Medium</t>
+  </si>
+  <si>
+    <t>medium</t>
+  </si>
+  <si>
+    <t>validate the user can able to add the food and beverage in booking tickets</t>
+  </si>
+  <si>
+    <t>1.select the number of seats and seat row
+2.click the add button to add the snacks</t>
+  </si>
+  <si>
+    <t>user can able to add the snacks</t>
+  </si>
+  <si>
+    <t>validate the total payment after adding the snack</t>
+  </si>
+  <si>
+    <t>1.select the number of seats and seat row
+2.click the add button to add the snacks
+3.check the total payment</t>
+  </si>
+  <si>
+    <t>user should get the correct total payment</t>
+  </si>
+  <si>
+    <t>(TS_007)Payment Page functionality</t>
+  </si>
+  <si>
+    <t>validate the user get the payment page after clicking proceed to pay</t>
+  </si>
+  <si>
+    <t>1.click proceed to pay
+2.check the payment page</t>
+  </si>
+  <si>
+    <t>user should able to get the payment page</t>
+  </si>
+  <si>
+    <t>validate the user able to fill the details in the corresponding field</t>
+  </si>
+  <si>
+    <t>1.click proceed to pay
+2.check the payment page
+3.Enter the details</t>
+  </si>
+  <si>
+    <t>user should able to fill the details</t>
+  </si>
+  <si>
+    <t>validate the offer code is working or not</t>
+  </si>
+  <si>
+    <t>1.enter the offer code 
+2.click the check button</t>
+  </si>
+  <si>
+    <t>user should able to get the offer</t>
+  </si>
+  <si>
+    <t>validate the user able to make the payment using debit and credit card</t>
+  </si>
+  <si>
+    <t>1.enter the card details .
+2.click make payment</t>
+  </si>
+  <si>
+    <t>user should able to make the payment</t>
+  </si>
+  <si>
+    <t>validate the user get the confirmation msg after payment</t>
+  </si>
+  <si>
+    <t>user should get the confirmation msg "ticket booked"</t>
+  </si>
+  <si>
+    <t>validate the user able to make the payment using net banking</t>
+  </si>
+  <si>
+    <t>1.select the bank in dropdown
+2.provide customer ID and password
+3.click on login
+4.make the payment</t>
+  </si>
+  <si>
+    <t>user should able to make the payment and get the ticket confirmation</t>
+  </si>
+  <si>
+    <t>validate the user able to make the payment using gift vocher</t>
+  </si>
+  <si>
+    <t>1.select the gift voucher
+2.enter the GV number and apply</t>
+  </si>
+  <si>
+    <t>user should able to book the tickets</t>
+  </si>
+  <si>
+    <t>validate the user get the tickets after making the payment</t>
+  </si>
+  <si>
+    <t>1.make the payment
+2.check the mailid or mobile number</t>
+  </si>
+  <si>
+    <t xml:space="preserve">user should receive the tickets </t>
+  </si>
+  <si>
+    <t>TC_ACF_OO1</t>
+  </si>
+  <si>
+    <t>TC_ACF_OO2</t>
+  </si>
+  <si>
+    <t>TC_ACF_OO3</t>
+  </si>
+  <si>
+    <t>TC_ACF_OO4</t>
+  </si>
+  <si>
+    <t>TC_ACF_OO5</t>
+  </si>
+  <si>
+    <t>TC_ACF_OO6</t>
+  </si>
+  <si>
+    <t>TC_ACF_O07</t>
+  </si>
+  <si>
+    <t>TC_SIF_O02</t>
+  </si>
+  <si>
+    <t>TC_SIF_O03</t>
+  </si>
+  <si>
+    <t>TC_SIF_O04</t>
+  </si>
+  <si>
+    <t>TC_SIF_O05</t>
+  </si>
+  <si>
+    <t>TC_SIF_O06</t>
+  </si>
+  <si>
+    <t>TC_SIF_OO1</t>
+  </si>
+  <si>
+    <t>TC_SIF_OO7</t>
+  </si>
+  <si>
+    <t>TC_PF_OO7</t>
+  </si>
+  <si>
+    <t>TC_PF_OO1</t>
+  </si>
+  <si>
+    <t>TC_PF_OO2</t>
+  </si>
+  <si>
+    <t>TC_PF_OO3</t>
+  </si>
+  <si>
+    <t>TC_PF_OO4</t>
+  </si>
+  <si>
+    <t>TC_PF_OO5</t>
+  </si>
+  <si>
+    <t>TC_PF_OO6</t>
+  </si>
+  <si>
+    <t>TC_SOF_OO1</t>
+  </si>
+  <si>
+    <t>TC_SOF_OO2</t>
+  </si>
+  <si>
+    <t>TC_SOF_OO3</t>
+  </si>
+  <si>
+    <t>TC_SF_OO3</t>
+  </si>
+  <si>
+    <t>TC_SF_OO1</t>
+  </si>
+  <si>
+    <t>TC_SF_OO2</t>
+  </si>
+  <si>
+    <t>TC_SF_OO4</t>
+  </si>
+  <si>
+    <t>TC_SF_OO5</t>
+  </si>
+  <si>
+    <t>TC_SF_OO6</t>
+  </si>
+  <si>
+    <t>TC_SF_OO7</t>
+  </si>
+  <si>
+    <t>TC_SF_OO8</t>
+  </si>
+  <si>
+    <t>TC_TBF_OO1</t>
+  </si>
+  <si>
+    <t>TC_TBF_OO2</t>
+  </si>
+  <si>
+    <t>TC_TBF_OO3</t>
+  </si>
+  <si>
+    <t>TC_TBF_OO4</t>
+  </si>
+  <si>
+    <t>TC_TBF_OO5</t>
+  </si>
+  <si>
+    <t>TC_TBF_OO6</t>
+  </si>
+  <si>
+    <t>TC_TBF_OO7</t>
+  </si>
+  <si>
+    <t>TC_TBF_OO8</t>
+  </si>
+  <si>
+    <t>TC_TBF_OO9</t>
+  </si>
+  <si>
+    <t>TC_PPF_OO1</t>
+  </si>
+  <si>
+    <t>TC_PPF_OO2</t>
+  </si>
+  <si>
+    <t>TC_PPF_OO3</t>
+  </si>
+  <si>
+    <t>TC_PPF_OO4</t>
+  </si>
+  <si>
+    <t>TC_PPF_OO5</t>
+  </si>
+  <si>
+    <t>TC_PPF_OO6</t>
+  </si>
+  <si>
+    <t>TC_PPF_OO7</t>
+  </si>
+  <si>
+    <t>TC_PPF_OO8</t>
+  </si>
+  <si>
+    <t>BOOKMY SHOW APP TEST CASES</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -467,13 +805,41 @@
       <family val="2"/>
     </font>
     <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="14"/>
       <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FFFF0000"/>
       <name val="Verdana"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -492,8 +858,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -546,11 +918,20 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -561,14 +942,42 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -850,28 +1259,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Z77"/>
+  <dimension ref="A1:Y137"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="B77" sqref="B77"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="C140" sqref="C140"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="27.109375" customWidth="1"/>
-    <col min="2" max="2" width="50.6640625" customWidth="1"/>
-    <col min="3" max="3" width="32.21875" customWidth="1"/>
-    <col min="4" max="4" width="23.33203125" customWidth="1"/>
+    <col min="2" max="2" width="51.21875" customWidth="1"/>
+    <col min="3" max="3" width="73.88671875" customWidth="1"/>
+    <col min="4" max="4" width="41.21875" customWidth="1"/>
     <col min="5" max="5" width="48.33203125" customWidth="1"/>
-    <col min="6" max="6" width="48.77734375" customWidth="1"/>
-    <col min="7" max="7" width="30.5546875" customWidth="1"/>
-    <col min="8" max="8" width="37" customWidth="1"/>
-    <col min="9" max="9" width="34" customWidth="1"/>
+    <col min="6" max="6" width="47.33203125" customWidth="1"/>
+    <col min="7" max="7" width="70.5546875" customWidth="1"/>
+    <col min="8" max="8" width="30.5546875" customWidth="1"/>
+    <col min="9" max="9" width="37" customWidth="1"/>
     <col min="10" max="10" width="46.109375" customWidth="1"/>
-    <col min="11" max="11" width="40.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="87.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -894,17 +1302,15 @@
         <v>6</v>
       </c>
       <c r="H1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="2" t="s">
         <v>7</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>8</v>
       </c>
       <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="2" t="s">
-        <v>10</v>
-      </c>
+      <c r="K1" s="3"/>
       <c r="L1" s="3"/>
       <c r="M1" s="3"/>
       <c r="N1" s="3"/>
@@ -919,509 +1325,2261 @@
       <c r="W1" s="3"/>
       <c r="X1" s="3"/>
       <c r="Y1" s="3"/>
-      <c r="Z1" s="3"/>
-    </row>
-    <row r="2" spans="1:26" ht="72" x14ac:dyDescent="0.3">
-      <c r="B2" s="4" t="s">
+    </row>
+    <row r="2" spans="1:25" s="16" customFormat="1" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="19" t="s">
+        <v>218</v>
+      </c>
+      <c r="B2" s="19"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="19"/>
+      <c r="H2" s="19"/>
+      <c r="I2" s="19"/>
+      <c r="J2" s="19"/>
+    </row>
+    <row r="3" spans="1:25" s="16" customFormat="1" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="20"/>
+      <c r="B3" s="20"/>
+      <c r="C3" s="20"/>
+      <c r="D3" s="20"/>
+      <c r="E3" s="20"/>
+      <c r="F3" s="20"/>
+      <c r="G3" s="20"/>
+      <c r="H3" s="20"/>
+      <c r="I3" s="20"/>
+      <c r="J3" s="20"/>
+    </row>
+    <row r="4" spans="1:25" s="8" customFormat="1" ht="90" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>169</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="D4" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C2" t="s">
+      <c r="E4" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="F4" s="11"/>
+      <c r="G4" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="H4" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="I4" s="6"/>
+      <c r="J4" s="6"/>
+      <c r="K4" s="7"/>
+      <c r="L4" s="7"/>
+      <c r="M4" s="7"/>
+      <c r="N4" s="7"/>
+      <c r="O4" s="7"/>
+      <c r="P4" s="7"/>
+      <c r="Q4" s="7"/>
+      <c r="R4" s="7"/>
+      <c r="S4" s="7"/>
+      <c r="T4" s="7"/>
+      <c r="U4" s="7"/>
+      <c r="V4" s="7"/>
+      <c r="W4" s="7"/>
+      <c r="X4" s="7"/>
+      <c r="Y4" s="7"/>
+    </row>
+    <row r="5" spans="1:25" s="8" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+      <c r="A5"/>
+      <c r="B5" s="11"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="11"/>
+      <c r="I5" s="6"/>
+      <c r="J5" s="6"/>
+      <c r="K5" s="7"/>
+      <c r="L5" s="7"/>
+      <c r="M5" s="7"/>
+      <c r="N5" s="7"/>
+      <c r="O5" s="7"/>
+      <c r="P5" s="7"/>
+      <c r="Q5" s="7"/>
+      <c r="R5" s="7"/>
+      <c r="S5" s="7"/>
+      <c r="T5" s="7"/>
+      <c r="U5" s="7"/>
+      <c r="V5" s="7"/>
+      <c r="W5" s="7"/>
+      <c r="X5" s="7"/>
+      <c r="Y5" s="7"/>
+    </row>
+    <row r="6" spans="1:25" s="8" customFormat="1" ht="72" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>170</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="D6" s="11"/>
+      <c r="E6" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="F6" s="11"/>
+      <c r="G6" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="H6" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="I6" s="6"/>
+      <c r="J6" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="K6" s="7"/>
+      <c r="L6" s="7"/>
+      <c r="M6" s="7"/>
+      <c r="N6" s="7"/>
+      <c r="O6" s="7"/>
+      <c r="P6" s="7"/>
+      <c r="Q6" s="7"/>
+      <c r="R6" s="7"/>
+      <c r="S6" s="7"/>
+      <c r="T6" s="7"/>
+      <c r="U6" s="7"/>
+      <c r="V6" s="7"/>
+      <c r="W6" s="7"/>
+      <c r="X6" s="7"/>
+      <c r="Y6" s="7"/>
+    </row>
+    <row r="7" spans="1:25" s="8" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+      <c r="A7"/>
+      <c r="B7" s="11"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="6"/>
+      <c r="J7" s="6"/>
+      <c r="K7" s="7"/>
+      <c r="L7" s="7"/>
+      <c r="M7" s="7"/>
+      <c r="N7" s="7"/>
+      <c r="O7" s="7"/>
+      <c r="P7" s="7"/>
+      <c r="Q7" s="7"/>
+      <c r="R7" s="7"/>
+      <c r="S7" s="7"/>
+      <c r="T7" s="7"/>
+      <c r="U7" s="7"/>
+      <c r="V7" s="7"/>
+      <c r="W7" s="7"/>
+      <c r="X7" s="7"/>
+      <c r="Y7" s="7"/>
+    </row>
+    <row r="8" spans="1:25" s="8" customFormat="1" ht="36" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>171</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>123</v>
+      </c>
+      <c r="D8" s="11"/>
+      <c r="E8" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="H8" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="I8" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="J8" s="6"/>
+      <c r="K8" s="7"/>
+      <c r="L8" s="7"/>
+      <c r="M8" s="7"/>
+      <c r="N8" s="7"/>
+      <c r="O8" s="7"/>
+      <c r="P8" s="7"/>
+      <c r="Q8" s="7"/>
+      <c r="R8" s="7"/>
+      <c r="S8" s="7"/>
+      <c r="T8" s="7"/>
+      <c r="U8" s="7"/>
+      <c r="V8" s="7"/>
+      <c r="W8" s="7"/>
+      <c r="X8" s="7"/>
+      <c r="Y8" s="7"/>
+    </row>
+    <row r="9" spans="1:25" s="8" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+      <c r="A9"/>
+      <c r="B9" s="11"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="11"/>
+      <c r="I9" s="6"/>
+      <c r="J9" s="6"/>
+      <c r="K9" s="7"/>
+      <c r="L9" s="7"/>
+      <c r="M9" s="7"/>
+      <c r="N9" s="7"/>
+      <c r="O9" s="7"/>
+      <c r="P9" s="7"/>
+      <c r="Q9" s="7"/>
+      <c r="R9" s="7"/>
+      <c r="S9" s="7"/>
+      <c r="T9" s="7"/>
+      <c r="U9" s="7"/>
+      <c r="V9" s="7"/>
+      <c r="W9" s="7"/>
+      <c r="X9" s="7"/>
+      <c r="Y9" s="7"/>
+    </row>
+    <row r="10" spans="1:25" s="8" customFormat="1" ht="36" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>172</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>126</v>
+      </c>
+      <c r="D10" s="11"/>
+      <c r="E10" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="F10" s="11"/>
+      <c r="G10" s="11" t="s">
+        <v>128</v>
+      </c>
+      <c r="H10" s="11" t="s">
+        <v>137</v>
+      </c>
+      <c r="I10" s="6"/>
+      <c r="J10" s="6"/>
+      <c r="K10" s="7"/>
+      <c r="L10" s="7"/>
+      <c r="M10" s="7"/>
+      <c r="N10" s="7"/>
+      <c r="O10" s="7"/>
+      <c r="P10" s="7"/>
+      <c r="Q10" s="7"/>
+      <c r="R10" s="7"/>
+      <c r="S10" s="7"/>
+      <c r="T10" s="7"/>
+      <c r="U10" s="7"/>
+      <c r="V10" s="7"/>
+      <c r="W10" s="7"/>
+      <c r="X10" s="7"/>
+      <c r="Y10" s="7"/>
+    </row>
+    <row r="11" spans="1:25" s="8" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+      <c r="A11"/>
+      <c r="B11" s="11"/>
+      <c r="C11" s="11"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="11"/>
+      <c r="H11" s="11"/>
+      <c r="I11" s="6"/>
+      <c r="J11" s="6"/>
+      <c r="K11" s="7"/>
+      <c r="L11" s="7"/>
+      <c r="M11" s="7"/>
+      <c r="N11" s="7"/>
+      <c r="O11" s="7"/>
+      <c r="P11" s="7"/>
+      <c r="Q11" s="7"/>
+      <c r="R11" s="7"/>
+      <c r="S11" s="7"/>
+      <c r="T11" s="7"/>
+      <c r="U11" s="7"/>
+      <c r="V11" s="7"/>
+      <c r="W11" s="7"/>
+      <c r="X11" s="7"/>
+      <c r="Y11" s="7"/>
+    </row>
+    <row r="12" spans="1:25" s="8" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+      <c r="A12"/>
+      <c r="B12" s="11"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="11"/>
+      <c r="H12" s="11"/>
+      <c r="I12" s="6"/>
+      <c r="J12" s="6"/>
+      <c r="K12" s="7"/>
+      <c r="L12" s="7"/>
+      <c r="M12" s="7"/>
+      <c r="N12" s="7"/>
+      <c r="O12" s="7"/>
+      <c r="P12" s="7"/>
+      <c r="Q12" s="7"/>
+      <c r="R12" s="7"/>
+      <c r="S12" s="7"/>
+      <c r="T12" s="7"/>
+      <c r="U12" s="7"/>
+      <c r="V12" s="7"/>
+      <c r="W12" s="7"/>
+      <c r="X12" s="7"/>
+      <c r="Y12" s="7"/>
+    </row>
+    <row r="13" spans="1:25" s="8" customFormat="1" ht="72" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>173</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="D13" s="11"/>
+      <c r="E13" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="F13" s="11"/>
+      <c r="G13" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="H13" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="I13" s="6"/>
+      <c r="J13" s="6"/>
+      <c r="K13" s="7"/>
+      <c r="L13" s="7"/>
+      <c r="M13" s="7"/>
+      <c r="N13" s="7"/>
+      <c r="O13" s="7"/>
+      <c r="P13" s="7"/>
+      <c r="Q13" s="7"/>
+      <c r="R13" s="7"/>
+      <c r="S13" s="7"/>
+      <c r="T13" s="7"/>
+      <c r="U13" s="7"/>
+      <c r="V13" s="7"/>
+      <c r="W13" s="7"/>
+      <c r="X13" s="7"/>
+      <c r="Y13" s="7"/>
+    </row>
+    <row r="14" spans="1:25" s="8" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+      <c r="A14"/>
+      <c r="B14" s="11"/>
+      <c r="C14" s="11"/>
+      <c r="D14" s="11"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="11"/>
+      <c r="H14" s="11"/>
+      <c r="I14" s="6"/>
+      <c r="J14" s="6"/>
+      <c r="K14" s="7"/>
+      <c r="L14" s="7"/>
+      <c r="M14" s="7"/>
+      <c r="N14" s="7"/>
+      <c r="O14" s="7"/>
+      <c r="P14" s="7"/>
+      <c r="Q14" s="7"/>
+      <c r="R14" s="7"/>
+      <c r="S14" s="7"/>
+      <c r="T14" s="7"/>
+      <c r="U14" s="7"/>
+      <c r="V14" s="7"/>
+      <c r="W14" s="7"/>
+      <c r="X14" s="7"/>
+      <c r="Y14" s="7"/>
+    </row>
+    <row r="15" spans="1:25" s="8" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+      <c r="A15"/>
+      <c r="B15" s="11"/>
+      <c r="C15" s="11"/>
+      <c r="D15" s="11"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="11"/>
+      <c r="G15" s="11"/>
+      <c r="H15" s="11"/>
+      <c r="I15" s="6"/>
+      <c r="J15" s="6"/>
+      <c r="K15" s="7"/>
+      <c r="L15" s="7"/>
+      <c r="M15" s="7"/>
+      <c r="N15" s="7"/>
+      <c r="O15" s="7"/>
+      <c r="P15" s="7"/>
+      <c r="Q15" s="7"/>
+      <c r="R15" s="7"/>
+      <c r="S15" s="7"/>
+      <c r="T15" s="7"/>
+      <c r="U15" s="7"/>
+      <c r="V15" s="7"/>
+      <c r="W15" s="7"/>
+      <c r="X15" s="7"/>
+      <c r="Y15" s="7"/>
+    </row>
+    <row r="16" spans="1:25" s="8" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+      <c r="A16"/>
+      <c r="B16" s="11"/>
+      <c r="C16" s="11"/>
+      <c r="D16" s="11"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="11"/>
+      <c r="G16" s="11"/>
+      <c r="H16" s="11"/>
+      <c r="I16" s="6"/>
+      <c r="J16" s="6"/>
+      <c r="K16" s="7"/>
+      <c r="L16" s="7"/>
+      <c r="M16" s="7"/>
+      <c r="N16" s="7"/>
+      <c r="O16" s="7"/>
+      <c r="P16" s="7"/>
+      <c r="Q16" s="7"/>
+      <c r="R16" s="7"/>
+      <c r="S16" s="7"/>
+      <c r="T16" s="7"/>
+      <c r="U16" s="7"/>
+      <c r="V16" s="7"/>
+      <c r="W16" s="7"/>
+      <c r="X16" s="7"/>
+      <c r="Y16" s="7"/>
+    </row>
+    <row r="17" spans="1:25" s="8" customFormat="1" ht="90" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>174</v>
+      </c>
+      <c r="B17" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="C17" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="D17" s="11"/>
+      <c r="E17" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="F17" s="11"/>
+      <c r="G17" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="H17" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="I17" s="6"/>
+      <c r="J17" s="6"/>
+      <c r="K17" s="7"/>
+      <c r="L17" s="7"/>
+      <c r="M17" s="7"/>
+      <c r="N17" s="7"/>
+      <c r="O17" s="7"/>
+      <c r="P17" s="7"/>
+      <c r="Q17" s="7"/>
+      <c r="R17" s="7"/>
+      <c r="S17" s="7"/>
+      <c r="T17" s="7"/>
+      <c r="U17" s="7"/>
+      <c r="V17" s="7"/>
+      <c r="W17" s="7"/>
+      <c r="X17" s="7"/>
+      <c r="Y17" s="7"/>
+    </row>
+    <row r="18" spans="1:25" s="8" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+      <c r="A18"/>
+      <c r="B18" s="11"/>
+      <c r="C18" s="11"/>
+      <c r="D18" s="11"/>
+      <c r="E18" s="11"/>
+      <c r="F18" s="11"/>
+      <c r="G18" s="11"/>
+      <c r="H18" s="11"/>
+      <c r="I18" s="6"/>
+      <c r="J18" s="6"/>
+      <c r="K18" s="7"/>
+      <c r="L18" s="7"/>
+      <c r="M18" s="7"/>
+      <c r="N18" s="7"/>
+      <c r="O18" s="7"/>
+      <c r="P18" s="7"/>
+      <c r="Q18" s="7"/>
+      <c r="R18" s="7"/>
+      <c r="S18" s="7"/>
+      <c r="T18" s="7"/>
+      <c r="U18" s="7"/>
+      <c r="V18" s="7"/>
+      <c r="W18" s="7"/>
+      <c r="X18" s="7"/>
+      <c r="Y18" s="7"/>
+    </row>
+    <row r="19" spans="1:25" s="8" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+      <c r="A19"/>
+      <c r="B19" s="11"/>
+      <c r="C19" s="11"/>
+      <c r="D19" s="11"/>
+      <c r="E19" s="11"/>
+      <c r="F19" s="11"/>
+      <c r="G19" s="11"/>
+      <c r="H19" s="11"/>
+      <c r="I19" s="6"/>
+      <c r="J19" s="6"/>
+      <c r="K19" s="7"/>
+      <c r="L19" s="7"/>
+      <c r="M19" s="7"/>
+      <c r="N19" s="7"/>
+      <c r="O19" s="7"/>
+      <c r="P19" s="7"/>
+      <c r="Q19" s="7"/>
+      <c r="R19" s="7"/>
+      <c r="S19" s="7"/>
+      <c r="T19" s="7"/>
+      <c r="U19" s="7"/>
+      <c r="V19" s="7"/>
+      <c r="W19" s="7"/>
+      <c r="X19" s="7"/>
+      <c r="Y19" s="7"/>
+    </row>
+    <row r="20" spans="1:25" s="8" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+      <c r="A20"/>
+      <c r="B20" s="11"/>
+      <c r="C20" s="11"/>
+      <c r="D20" s="11"/>
+      <c r="E20" s="11"/>
+      <c r="F20" s="11"/>
+      <c r="G20" s="11"/>
+      <c r="H20" s="11"/>
+      <c r="I20" s="6"/>
+      <c r="J20" s="6"/>
+      <c r="K20" s="7"/>
+      <c r="L20" s="7"/>
+      <c r="M20" s="7"/>
+      <c r="N20" s="7"/>
+      <c r="O20" s="7"/>
+      <c r="P20" s="7"/>
+      <c r="Q20" s="7"/>
+      <c r="R20" s="7"/>
+      <c r="S20" s="7"/>
+      <c r="T20" s="7"/>
+      <c r="U20" s="7"/>
+      <c r="V20" s="7"/>
+      <c r="W20" s="7"/>
+      <c r="X20" s="7"/>
+      <c r="Y20" s="7"/>
+    </row>
+    <row r="21" spans="1:25" s="8" customFormat="1" ht="54" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>175</v>
+      </c>
+      <c r="B21" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="C21" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="D21" s="11"/>
+      <c r="E21" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="F21" s="11"/>
+      <c r="G21" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="H21" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="I21" s="6"/>
+      <c r="J21" s="6"/>
+      <c r="K21" s="7"/>
+      <c r="L21" s="7"/>
+      <c r="M21" s="7"/>
+      <c r="N21" s="7"/>
+      <c r="O21" s="7"/>
+      <c r="P21" s="7"/>
+      <c r="Q21" s="7"/>
+      <c r="R21" s="7"/>
+      <c r="S21" s="7"/>
+      <c r="T21" s="7"/>
+      <c r="U21" s="7"/>
+      <c r="V21" s="7"/>
+      <c r="W21" s="7"/>
+      <c r="X21" s="7"/>
+      <c r="Y21" s="7"/>
+    </row>
+    <row r="22" spans="1:25" s="8" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+      <c r="A22" s="6"/>
+      <c r="B22" s="11"/>
+      <c r="C22" s="11"/>
+      <c r="D22" s="11"/>
+      <c r="E22" s="11"/>
+      <c r="F22" s="11"/>
+      <c r="G22" s="11"/>
+      <c r="H22" s="11"/>
+      <c r="I22" s="6"/>
+      <c r="J22" s="6"/>
+      <c r="K22" s="7"/>
+      <c r="L22" s="7"/>
+      <c r="M22" s="7"/>
+      <c r="N22" s="7"/>
+      <c r="O22" s="7"/>
+      <c r="P22" s="7"/>
+      <c r="Q22" s="7"/>
+      <c r="R22" s="7"/>
+      <c r="S22" s="7"/>
+      <c r="T22" s="7"/>
+      <c r="U22" s="7"/>
+      <c r="V22" s="7"/>
+      <c r="W22" s="7"/>
+      <c r="X22" s="7"/>
+      <c r="Y22" s="7"/>
+    </row>
+    <row r="23" spans="1:25" s="8" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+      <c r="A23" s="17"/>
+      <c r="B23" s="18"/>
+      <c r="C23" s="18"/>
+      <c r="D23" s="18"/>
+      <c r="E23" s="18"/>
+      <c r="F23" s="18"/>
+      <c r="G23" s="18"/>
+      <c r="H23" s="18"/>
+      <c r="I23" s="17"/>
+      <c r="J23" s="6"/>
+      <c r="K23" s="7"/>
+      <c r="L23" s="7"/>
+      <c r="M23" s="7"/>
+      <c r="N23" s="7"/>
+      <c r="O23" s="7"/>
+      <c r="P23" s="7"/>
+      <c r="Q23" s="7"/>
+      <c r="R23" s="7"/>
+      <c r="S23" s="7"/>
+      <c r="T23" s="7"/>
+      <c r="U23" s="7"/>
+      <c r="V23" s="7"/>
+      <c r="W23" s="7"/>
+      <c r="X23" s="7"/>
+      <c r="Y23" s="7"/>
+    </row>
+    <row r="24" spans="1:25" ht="54" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>181</v>
+      </c>
+      <c r="B24" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="C24" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="D24" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E24" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F24" s="11"/>
+      <c r="G24" s="11"/>
+      <c r="H24" s="11" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="25" spans="1:25" ht="90" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>176</v>
+      </c>
+      <c r="B25" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="C25" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="D25" s="11"/>
+      <c r="E25" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="F25" s="11"/>
+      <c r="G25" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="H25" s="11" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="26" spans="1:25" ht="18" x14ac:dyDescent="0.35">
+      <c r="B26" s="11"/>
+      <c r="C26" s="11"/>
+      <c r="D26" s="11"/>
+      <c r="E26" s="11"/>
+      <c r="F26" s="11"/>
+      <c r="G26" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="H26" s="11"/>
+    </row>
+    <row r="27" spans="1:25" ht="72" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>177</v>
+      </c>
+      <c r="B27" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="C27" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="D27" s="11"/>
+      <c r="E27" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="F27" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="G27" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="H27" s="11" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="28" spans="1:25" ht="18" x14ac:dyDescent="0.35">
+      <c r="B28" s="11"/>
+      <c r="C28" s="11"/>
+      <c r="D28" s="11"/>
+      <c r="E28" s="11"/>
+      <c r="F28" s="11"/>
+      <c r="G28" s="11"/>
+      <c r="H28" s="11"/>
+    </row>
+    <row r="29" spans="1:25" ht="90" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>178</v>
+      </c>
+      <c r="B29" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="C29" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="D29" s="11"/>
+      <c r="E29" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="D2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:26" ht="72" x14ac:dyDescent="0.3">
-      <c r="B4" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="F29" s="11"/>
+      <c r="G29" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="H29" s="11" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="30" spans="1:25" ht="18" x14ac:dyDescent="0.35">
+      <c r="B30" s="11"/>
+      <c r="C30" s="11"/>
+      <c r="D30" s="11"/>
+      <c r="E30" s="11"/>
+      <c r="F30" s="11"/>
+      <c r="G30" s="11"/>
+      <c r="H30" s="11"/>
+    </row>
+    <row r="31" spans="1:25" ht="90" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
+        <v>179</v>
+      </c>
+      <c r="B31" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="C31" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="D31" s="11"/>
+      <c r="E31" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="F31" s="11"/>
+      <c r="G31" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="H31" s="11" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="32" spans="1:25" ht="18" x14ac:dyDescent="0.35">
+      <c r="B32" s="9"/>
+      <c r="C32" s="11"/>
+      <c r="D32" s="11"/>
+      <c r="E32" s="12"/>
+      <c r="F32" s="11"/>
+      <c r="G32" s="11"/>
+      <c r="H32" s="11"/>
+    </row>
+    <row r="33" spans="1:8" ht="36" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
+        <v>180</v>
+      </c>
+      <c r="B33" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="C33" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="D33" s="11"/>
+      <c r="E33" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F33" s="11"/>
+      <c r="G33" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="H33" s="11" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+      <c r="B34" s="9"/>
+      <c r="C34" s="11"/>
+      <c r="D34" s="11"/>
+      <c r="E34" s="12"/>
+      <c r="F34" s="11"/>
+      <c r="G34" s="11"/>
+      <c r="H34" s="11"/>
+    </row>
+    <row r="35" spans="1:8" ht="54" x14ac:dyDescent="0.35">
+      <c r="A35" t="s">
+        <v>182</v>
+      </c>
+      <c r="B35" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="C35" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="D35" s="11"/>
+      <c r="E35" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="F35" s="11"/>
+      <c r="G35" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="H35" s="11"/>
+    </row>
+    <row r="36" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+      <c r="B36" s="9"/>
+      <c r="C36" s="11"/>
+      <c r="D36" s="11"/>
+      <c r="E36" s="12"/>
+      <c r="F36" s="11"/>
+      <c r="G36" s="11"/>
+      <c r="H36" s="11"/>
+    </row>
+    <row r="37" spans="1:8" s="8" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+      <c r="A37" s="5"/>
+      <c r="B37" s="10"/>
+      <c r="C37" s="13"/>
+      <c r="D37" s="13"/>
+      <c r="E37" s="14"/>
+      <c r="F37" s="13"/>
+      <c r="G37" s="13"/>
+      <c r="H37" s="13"/>
+    </row>
+    <row r="38" spans="1:8" s="8" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+      <c r="B38" s="15"/>
+      <c r="C38" s="15"/>
+      <c r="D38" s="15"/>
+      <c r="E38" s="15"/>
+      <c r="F38" s="15"/>
+      <c r="G38" s="15"/>
+      <c r="H38" s="15"/>
+    </row>
+    <row r="39" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+      <c r="A39" t="s">
+        <v>184</v>
+      </c>
+      <c r="B39" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="C39" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="D39" s="11"/>
+      <c r="E39" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="F39" s="11"/>
+      <c r="G39" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="H39" s="11" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+      <c r="B40" s="11"/>
+      <c r="C40" s="11"/>
+      <c r="D40" s="11"/>
+      <c r="E40" s="11"/>
+      <c r="F40" s="11"/>
+      <c r="G40" s="11"/>
+      <c r="H40" s="11"/>
+    </row>
+    <row r="41" spans="1:8" ht="36" x14ac:dyDescent="0.35">
+      <c r="A41" t="s">
+        <v>185</v>
+      </c>
+      <c r="B41" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="C41" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="D41" s="11"/>
+      <c r="E41" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="F41" s="11"/>
+      <c r="G41" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="H41" s="11" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+      <c r="A42" s="8"/>
+      <c r="B42" s="11"/>
+      <c r="C42" s="11"/>
+      <c r="D42" s="11"/>
+      <c r="E42" s="11"/>
+      <c r="F42" s="11"/>
+      <c r="G42" s="11"/>
+      <c r="H42" s="11"/>
+    </row>
+    <row r="43" spans="1:8" ht="108" x14ac:dyDescent="0.35">
+      <c r="A43" t="s">
+        <v>186</v>
+      </c>
+      <c r="B43" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="C43" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="D43" s="11"/>
+      <c r="E43" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="F43" s="11"/>
+      <c r="G43" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="H43" s="11" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+      <c r="B44" s="11"/>
+      <c r="C44" s="11"/>
+      <c r="D44" s="11"/>
+      <c r="E44" s="11"/>
+      <c r="F44" s="11"/>
+      <c r="G44" s="11"/>
+      <c r="H44" s="11"/>
+    </row>
+    <row r="45" spans="1:8" ht="54" x14ac:dyDescent="0.35">
+      <c r="A45" t="s">
+        <v>187</v>
+      </c>
+      <c r="B45" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="C45" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="D45" s="11"/>
+      <c r="E45" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="F45" s="11"/>
+      <c r="G45" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="H45" s="11" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+      <c r="B46" s="11"/>
+      <c r="C46" s="11"/>
+      <c r="D46" s="11"/>
+      <c r="E46" s="11"/>
+      <c r="F46" s="11"/>
+      <c r="G46" s="11"/>
+      <c r="H46" s="11"/>
+    </row>
+    <row r="47" spans="1:8" ht="126" x14ac:dyDescent="0.35">
+      <c r="A47" t="s">
+        <v>188</v>
+      </c>
+      <c r="B47" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="C47" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="D47" s="11"/>
+      <c r="E47" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="F47" s="11"/>
+      <c r="G47" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="H47" s="11" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+      <c r="B48" s="9"/>
+      <c r="C48" s="11"/>
+      <c r="D48" s="11"/>
+      <c r="E48" s="12"/>
+      <c r="F48" s="11"/>
+      <c r="G48" s="12"/>
+      <c r="H48" s="12"/>
+    </row>
+    <row r="49" spans="1:8" ht="36" x14ac:dyDescent="0.35">
+      <c r="A49" t="s">
+        <v>189</v>
+      </c>
+      <c r="B49" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="C49" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="D49" s="11"/>
+      <c r="E49" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="F49" s="11"/>
+      <c r="G49" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="H49" s="12" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+      <c r="B50" s="9"/>
+      <c r="C50" s="11"/>
+      <c r="D50" s="11"/>
+      <c r="E50" s="12"/>
+      <c r="F50" s="11"/>
+      <c r="G50" s="12"/>
+      <c r="H50" s="12"/>
+    </row>
+    <row r="51" spans="1:8" ht="72" x14ac:dyDescent="0.35">
+      <c r="A51" t="s">
+        <v>183</v>
+      </c>
+      <c r="B51" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="C51" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="D51" s="11"/>
+      <c r="E51" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="F51" s="11"/>
+      <c r="G51" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="H51" s="12" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+      <c r="B52" s="9"/>
+      <c r="C52" s="11"/>
+      <c r="D52" s="11"/>
+      <c r="E52" s="12"/>
+      <c r="F52" s="11"/>
+      <c r="G52" s="12"/>
+      <c r="H52" s="12"/>
+    </row>
+    <row r="53" spans="1:8" s="8" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+      <c r="A53" s="5"/>
+      <c r="B53" s="10"/>
+      <c r="C53" s="13"/>
+      <c r="D53" s="13"/>
+      <c r="E53" s="13"/>
+      <c r="F53" s="13"/>
+      <c r="G53" s="13"/>
+      <c r="H53" s="13"/>
+    </row>
+    <row r="54" spans="1:8" ht="36" x14ac:dyDescent="0.35">
+      <c r="A54" t="s">
+        <v>190</v>
+      </c>
+      <c r="B54" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="C54" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="D54" s="11"/>
+      <c r="E54" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="F54" s="11"/>
+      <c r="G54" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="G4" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="G5" t="s">
+      <c r="H54" s="12" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+      <c r="B55" s="11"/>
+      <c r="C55" s="11"/>
+      <c r="D55" s="11"/>
+      <c r="E55" s="11"/>
+      <c r="F55" s="11"/>
+      <c r="G55" s="11"/>
+      <c r="H55" s="11"/>
+    </row>
+    <row r="56" spans="1:8" ht="54" x14ac:dyDescent="0.35">
+      <c r="A56" t="s">
+        <v>191</v>
+      </c>
+      <c r="B56" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="C56" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="D56" s="11"/>
+      <c r="E56" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="F56" s="11"/>
+      <c r="G56" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="H56" s="12" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+      <c r="A57" s="8"/>
+      <c r="B57" s="11"/>
+      <c r="C57" s="11"/>
+      <c r="D57" s="11"/>
+      <c r="E57" s="11"/>
+      <c r="F57" s="11"/>
+      <c r="G57" s="11"/>
+      <c r="H57" s="11"/>
+    </row>
+    <row r="58" spans="1:8" ht="36" x14ac:dyDescent="0.35">
+      <c r="A58" t="s">
+        <v>192</v>
+      </c>
+      <c r="B58" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="C58" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="D58" s="11"/>
+      <c r="E58" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="F58" s="11"/>
+      <c r="G58" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="H58" s="11" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+      <c r="B59" s="9"/>
+      <c r="C59" s="11"/>
+      <c r="D59" s="11"/>
+      <c r="E59" s="12"/>
+      <c r="F59" s="11"/>
+      <c r="G59" s="11"/>
+      <c r="H59" s="11"/>
+    </row>
+    <row r="60" spans="1:8" s="8" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+      <c r="A60" s="5"/>
+      <c r="B60" s="13"/>
+      <c r="C60" s="13"/>
+      <c r="D60" s="13"/>
+      <c r="E60" s="14"/>
+      <c r="F60" s="13"/>
+      <c r="G60" s="13"/>
+      <c r="H60" s="13"/>
+    </row>
+    <row r="61" spans="1:8" ht="54" x14ac:dyDescent="0.35">
+      <c r="A61" t="s">
+        <v>194</v>
+      </c>
+      <c r="B61" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="C61" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="D61" s="11"/>
+      <c r="E61" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="F61" s="11"/>
+      <c r="G61" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="H61" s="12" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+      <c r="B62" s="11"/>
+      <c r="C62" s="11"/>
+      <c r="D62" s="11"/>
+      <c r="E62" s="11"/>
+      <c r="F62" s="11"/>
+      <c r="G62" s="11"/>
+      <c r="H62" s="11"/>
+    </row>
+    <row r="63" spans="1:8" ht="54" x14ac:dyDescent="0.35">
+      <c r="A63" t="s">
+        <v>195</v>
+      </c>
+      <c r="B63" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="C63" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="D63" s="11"/>
+      <c r="E63" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="F63" s="12"/>
+      <c r="G63" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="H63" s="11" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+      <c r="A64" s="8"/>
+      <c r="B64" s="11"/>
+      <c r="C64" s="11"/>
+      <c r="D64" s="11"/>
+      <c r="E64" s="11"/>
+      <c r="F64" s="11"/>
+      <c r="G64" s="11"/>
+      <c r="H64" s="11"/>
+    </row>
+    <row r="65" spans="1:8" ht="54" x14ac:dyDescent="0.35">
+      <c r="A65" t="s">
+        <v>193</v>
+      </c>
+      <c r="B65" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="C65" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="D65" s="11"/>
+      <c r="E65" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="F65" s="11"/>
+      <c r="G65" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="H65" s="11" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+      <c r="B66" s="11"/>
+      <c r="C66" s="11"/>
+      <c r="D66" s="11"/>
+      <c r="E66" s="11"/>
+      <c r="F66" s="11"/>
+      <c r="G66" s="11"/>
+      <c r="H66" s="11"/>
+    </row>
+    <row r="67" spans="1:8" s="8" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+      <c r="B67" s="15"/>
+      <c r="C67" s="15"/>
+      <c r="D67" s="15"/>
+      <c r="E67" s="15"/>
+      <c r="F67" s="15"/>
+      <c r="G67" s="15"/>
+      <c r="H67" s="15"/>
+    </row>
+    <row r="68" spans="1:8" ht="54" x14ac:dyDescent="0.35">
+      <c r="A68" t="s">
+        <v>196</v>
+      </c>
+      <c r="B68" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="C68" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="D68" s="11"/>
+      <c r="E68" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="F68" s="11"/>
+      <c r="G68" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="H68" s="11" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+      <c r="B69" s="11"/>
+      <c r="C69" s="11"/>
+      <c r="D69" s="11"/>
+      <c r="E69" s="11"/>
+      <c r="F69" s="11"/>
+      <c r="G69" s="11"/>
+      <c r="H69" s="11"/>
+    </row>
+    <row r="70" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+      <c r="B70" s="11"/>
+      <c r="C70" s="11"/>
+      <c r="D70" s="11"/>
+      <c r="E70" s="11"/>
+      <c r="F70" s="11"/>
+      <c r="G70" s="11"/>
+      <c r="H70" s="11"/>
+    </row>
+    <row r="71" spans="1:8" ht="36" x14ac:dyDescent="0.35">
+      <c r="A71" t="s">
+        <v>197</v>
+      </c>
+      <c r="B71" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="C71" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="D71" s="11"/>
+      <c r="E71" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="F71" s="11"/>
+      <c r="G71" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="H71" s="11" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+      <c r="B72" s="11"/>
+      <c r="C72" s="11"/>
+      <c r="D72" s="11"/>
+      <c r="E72" s="11"/>
+      <c r="F72" s="11"/>
+      <c r="G72" s="11"/>
+      <c r="H72" s="11"/>
+    </row>
+    <row r="73" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+      <c r="B73" s="11"/>
+      <c r="C73" s="11"/>
+      <c r="D73" s="11"/>
+      <c r="E73" s="11"/>
+      <c r="F73" s="11"/>
+      <c r="G73" s="11"/>
+      <c r="H73" s="11"/>
+    </row>
+    <row r="74" spans="1:8" ht="54" x14ac:dyDescent="0.35">
+      <c r="A74" t="s">
+        <v>198</v>
+      </c>
+      <c r="B74" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="C74" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D74" s="11"/>
+      <c r="E74" s="12" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="6" spans="1:26" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="B6" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" t="s">
-        <v>41</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="F6" t="s">
-        <v>26</v>
-      </c>
-      <c r="G6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="8" spans="1:26" ht="72" x14ac:dyDescent="0.3">
-      <c r="B8" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C8" t="s">
-        <v>42</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="G8" s="5" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="10" spans="1:26" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="B10" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C10" t="s">
-        <v>36</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="G10" s="5" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="11" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="B11" s="4"/>
-      <c r="E11" s="5"/>
-    </row>
-    <row r="12" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="B12" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C12" t="s">
-        <v>47</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="G12" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="13" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="B13" s="4"/>
-      <c r="E13" s="5"/>
-    </row>
-    <row r="14" spans="1:26" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="B14" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C14" t="s">
-        <v>53</v>
-      </c>
-      <c r="E14" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="G14" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="15" spans="1:26" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="B16" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="C16" t="s">
-        <v>54</v>
-      </c>
-      <c r="E16" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="G16" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="18" spans="2:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B18" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="C18" t="s">
-        <v>70</v>
-      </c>
-      <c r="E18" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="G18" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="20" spans="2:7" ht="72" x14ac:dyDescent="0.3">
-      <c r="B20" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="C20" t="s">
-        <v>63</v>
-      </c>
-      <c r="E20" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="G20" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="22" spans="2:7" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="B22" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="C22" t="s">
-        <v>56</v>
-      </c>
-      <c r="E22" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="G22" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="24" spans="2:7" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="B24" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="C24" t="s">
-        <v>58</v>
-      </c>
-      <c r="E24" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="G24" s="5" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="25" spans="2:7" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="B25" s="4"/>
-      <c r="E25" s="5"/>
-      <c r="G25" s="5"/>
-    </row>
-    <row r="26" spans="2:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B26" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="C26" t="s">
-        <v>72</v>
-      </c>
-      <c r="E26" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="G26" s="5" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="27" spans="2:7" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="B27" s="4"/>
-      <c r="E27" s="5"/>
-      <c r="G27" s="5"/>
-    </row>
-    <row r="28" spans="2:7" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="B28" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="C28" t="s">
-        <v>75</v>
-      </c>
-      <c r="E28" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="G28" s="5" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="29" spans="2:7" s="6" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="B29" s="7"/>
-    </row>
-    <row r="30" spans="2:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B30" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C30" t="s">
-        <v>19</v>
-      </c>
-      <c r="E30" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="G30" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="32" spans="2:7" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="B32" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C32" t="s">
-        <v>67</v>
-      </c>
-      <c r="E32" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="G32" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="34" spans="2:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B34" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C34" t="s">
-        <v>78</v>
-      </c>
-      <c r="E34" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="G34" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="35" spans="2:7" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="B35" s="4"/>
-      <c r="E35" s="5"/>
-    </row>
-    <row r="36" spans="2:7" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="E36" s="8"/>
-    </row>
-    <row r="37" spans="2:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B37" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="C37" t="s">
-        <v>20</v>
-      </c>
-      <c r="E37" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="G37" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="39" spans="2:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B39" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="C39" t="s">
-        <v>81</v>
-      </c>
-      <c r="E39" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="F39" s="5"/>
-      <c r="G39" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="41" spans="2:7" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="B41" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="C41" t="s">
-        <v>83</v>
-      </c>
-      <c r="E41" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="G41" t="s">
+      <c r="F74" s="11"/>
+      <c r="G74" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="H74" s="11" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+      <c r="B75" s="11"/>
+      <c r="C75" s="11"/>
+      <c r="D75" s="11"/>
+      <c r="E75" s="11"/>
+      <c r="F75" s="11"/>
+      <c r="G75" s="11"/>
+      <c r="H75" s="11"/>
+    </row>
+    <row r="76" spans="1:8" ht="36" x14ac:dyDescent="0.35">
+      <c r="A76" t="s">
+        <v>199</v>
+      </c>
+      <c r="B76" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="C76" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="D76" s="11"/>
+      <c r="E76" s="12" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="44" spans="2:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B44" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="C44" t="s">
+      <c r="F76" s="11"/>
+      <c r="G76" s="11" t="s">
         <v>86</v>
       </c>
-      <c r="E44" s="5" t="s">
+      <c r="H76" s="11" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+      <c r="B77" s="11"/>
+      <c r="C77" s="11"/>
+      <c r="D77" s="11"/>
+      <c r="E77" s="11"/>
+      <c r="F77" s="11"/>
+      <c r="G77" s="11"/>
+      <c r="H77" s="11"/>
+    </row>
+    <row r="78" spans="1:8" ht="36" x14ac:dyDescent="0.35">
+      <c r="A78" t="s">
+        <v>200</v>
+      </c>
+      <c r="B78" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="C78" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="D78" s="11"/>
+      <c r="E78" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="F78" s="11"/>
+      <c r="G78" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="G44" t="s">
+      <c r="H78" s="11" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+      <c r="B79" s="11"/>
+      <c r="C79" s="11"/>
+      <c r="D79" s="11"/>
+      <c r="E79" s="11"/>
+      <c r="F79" s="11"/>
+      <c r="G79" s="11"/>
+      <c r="H79" s="11"/>
+    </row>
+    <row r="80" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+      <c r="B80" s="11"/>
+      <c r="C80" s="11"/>
+      <c r="D80" s="11"/>
+      <c r="E80" s="11"/>
+      <c r="F80" s="11"/>
+      <c r="G80" s="11"/>
+      <c r="H80" s="11"/>
+    </row>
+    <row r="81" spans="1:8" s="8" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+      <c r="A81" s="5"/>
+      <c r="B81" s="13"/>
+      <c r="C81" s="13"/>
+      <c r="D81" s="13"/>
+      <c r="E81" s="13"/>
+      <c r="F81" s="13"/>
+      <c r="G81" s="13"/>
+      <c r="H81" s="13"/>
+    </row>
+    <row r="82" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+      <c r="B82" s="11"/>
+      <c r="C82" s="11"/>
+      <c r="D82" s="11"/>
+      <c r="E82" s="11"/>
+      <c r="F82" s="11"/>
+      <c r="G82" s="11"/>
+      <c r="H82" s="11"/>
+    </row>
+    <row r="83" spans="1:8" ht="54" x14ac:dyDescent="0.35">
+      <c r="A83" t="s">
+        <v>201</v>
+      </c>
+      <c r="B83" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="C83" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="D83" s="11"/>
+      <c r="E83" s="12" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="47" spans="2:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B47" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="C47" t="s">
-        <v>89</v>
-      </c>
-      <c r="E47" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="G47" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="50" spans="2:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B50" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="C50" t="s">
-        <v>29</v>
-      </c>
-      <c r="E50" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="G50" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="52" spans="2:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B52" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="C52" t="s">
-        <v>32</v>
-      </c>
-      <c r="E52" s="5" t="s">
+      <c r="F83" s="11"/>
+      <c r="G83" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="G52" t="s">
+      <c r="H83" s="11" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+      <c r="B84" s="11"/>
+      <c r="C84" s="11"/>
+      <c r="D84" s="11"/>
+      <c r="E84" s="11"/>
+      <c r="F84" s="11"/>
+      <c r="G84" s="11"/>
+      <c r="H84" s="11"/>
+    </row>
+    <row r="85" spans="1:8" ht="72" x14ac:dyDescent="0.35">
+      <c r="A85" t="s">
+        <v>202</v>
+      </c>
+      <c r="B85" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="C85" s="11" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="54" spans="2:7" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="B54" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="C54" t="s">
-        <v>33</v>
-      </c>
-      <c r="E54" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="G54" t="s">
+      <c r="D85" s="11"/>
+      <c r="E85" s="12" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="57" spans="2:7" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="59" spans="2:7" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="B59" s="4" t="s">
+      <c r="F85" s="11"/>
+      <c r="G85" s="12" t="s">
         <v>93</v>
       </c>
-      <c r="C59" t="s">
+      <c r="H85" s="12" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+      <c r="B86" s="11"/>
+      <c r="C86" s="11"/>
+      <c r="D86" s="11"/>
+      <c r="E86" s="11"/>
+      <c r="F86" s="11"/>
+      <c r="G86" s="11"/>
+      <c r="H86" s="11"/>
+    </row>
+    <row r="87" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+      <c r="B87" s="11"/>
+      <c r="C87" s="11"/>
+      <c r="D87" s="11"/>
+      <c r="E87" s="11"/>
+      <c r="F87" s="11"/>
+      <c r="G87" s="11"/>
+      <c r="H87" s="11"/>
+    </row>
+    <row r="88" spans="1:8" ht="90" x14ac:dyDescent="0.35">
+      <c r="A88" t="s">
+        <v>203</v>
+      </c>
+      <c r="B88" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="C88" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="D88" s="11"/>
+      <c r="E88" s="12" t="s">
         <v>95</v>
       </c>
-      <c r="E59" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="G59" t="s">
+      <c r="F88" s="11"/>
+      <c r="G88" s="11" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="61" spans="2:7" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="B61" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="C61" t="s">
+      <c r="H88" s="11" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+      <c r="B89" s="11"/>
+      <c r="C89" s="11"/>
+      <c r="D89" s="11"/>
+      <c r="E89" s="11"/>
+      <c r="F89" s="11"/>
+      <c r="G89" s="11"/>
+      <c r="H89" s="11"/>
+    </row>
+    <row r="90" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+      <c r="B90" s="11"/>
+      <c r="C90" s="11"/>
+      <c r="D90" s="11"/>
+      <c r="E90" s="11"/>
+      <c r="F90" s="11"/>
+      <c r="G90" s="11"/>
+      <c r="H90" s="11"/>
+    </row>
+    <row r="91" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+      <c r="B91" s="11"/>
+      <c r="C91" s="11"/>
+      <c r="D91" s="11"/>
+      <c r="E91" s="11"/>
+      <c r="F91" s="11"/>
+      <c r="G91" s="11"/>
+      <c r="H91" s="11"/>
+    </row>
+    <row r="92" spans="1:8" ht="126" x14ac:dyDescent="0.35">
+      <c r="A92" t="s">
+        <v>204</v>
+      </c>
+      <c r="B92" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="C92" s="11" t="s">
         <v>97</v>
       </c>
-      <c r="E61" s="5" t="s">
+      <c r="D92" s="11"/>
+      <c r="E92" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="F92" s="11"/>
+      <c r="G92" s="12" t="s">
         <v>98</v>
       </c>
-      <c r="G61" s="5" t="s">
+      <c r="H92" s="11" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+      <c r="B93" s="11"/>
+      <c r="C93" s="11"/>
+      <c r="D93" s="11"/>
+      <c r="E93" s="11"/>
+      <c r="F93" s="11"/>
+      <c r="G93" s="11"/>
+      <c r="H93" s="11"/>
+    </row>
+    <row r="94" spans="1:8" ht="126" x14ac:dyDescent="0.35">
+      <c r="A94" t="s">
+        <v>205</v>
+      </c>
+      <c r="B94" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="C94" s="11" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="64" spans="2:7" ht="72" x14ac:dyDescent="0.3">
-      <c r="B64" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="C64" t="s">
+      <c r="D94" s="11"/>
+      <c r="E94" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="F94" s="11"/>
+      <c r="G94" s="12" t="s">
         <v>100</v>
       </c>
-      <c r="E64" s="5" t="s">
+      <c r="H94" s="11" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+      <c r="B95" s="11"/>
+      <c r="C95" s="11"/>
+      <c r="D95" s="11"/>
+      <c r="E95" s="11"/>
+      <c r="F95" s="11"/>
+      <c r="G95" s="11"/>
+      <c r="H95" s="11"/>
+    </row>
+    <row r="96" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+      <c r="B96" s="11"/>
+      <c r="C96" s="11"/>
+      <c r="D96" s="11"/>
+      <c r="E96" s="11"/>
+      <c r="F96" s="11"/>
+      <c r="G96" s="11"/>
+      <c r="H96" s="11"/>
+    </row>
+    <row r="97" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+      <c r="B97" s="11"/>
+      <c r="C97" s="11"/>
+      <c r="D97" s="11"/>
+      <c r="E97" s="11"/>
+      <c r="F97" s="11"/>
+      <c r="G97" s="11"/>
+      <c r="H97" s="11"/>
+    </row>
+    <row r="98" spans="1:8" ht="54" x14ac:dyDescent="0.35">
+      <c r="A98" t="s">
+        <v>206</v>
+      </c>
+      <c r="B98" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="C98" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="D98" s="11"/>
+      <c r="E98" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="F98" s="11"/>
+      <c r="G98" s="11" t="s">
         <v>101</v>
       </c>
-      <c r="G64" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="68" spans="2:7" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="B68" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="C68" t="s">
-        <v>103</v>
-      </c>
-      <c r="E68" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="G68" s="5" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="70" spans="2:7" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="B70" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="C70" t="s">
-        <v>105</v>
-      </c>
-      <c r="E70" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="G70" s="5" t="s">
+      <c r="H98" s="11" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+      <c r="B99" s="11"/>
+      <c r="C99" s="11"/>
+      <c r="D99" s="11"/>
+      <c r="E99" s="11"/>
+      <c r="F99" s="11"/>
+      <c r="G99" s="11"/>
+      <c r="H99" s="11"/>
+    </row>
+    <row r="100" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+      <c r="B100" s="11"/>
+      <c r="C100" s="11"/>
+      <c r="D100" s="11"/>
+      <c r="E100" s="11"/>
+      <c r="F100" s="11"/>
+      <c r="G100" s="11"/>
+      <c r="H100" s="11"/>
+    </row>
+    <row r="101" spans="1:8" ht="72" x14ac:dyDescent="0.35">
+      <c r="A101" t="s">
+        <v>207</v>
+      </c>
+      <c r="B101" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="C101" s="11" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="74" spans="2:7" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="B74" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="C74" t="s">
+      <c r="D101" s="11"/>
+      <c r="E101" s="12" t="s">
         <v>108</v>
       </c>
-      <c r="E74" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="G74" t="s">
+      <c r="F101" s="11"/>
+      <c r="G101" s="11" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="77" spans="2:7" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="B77" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="C77" t="s">
-        <v>112</v>
-      </c>
-      <c r="E77" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="G77" t="s">
-        <v>113</v>
-      </c>
+      <c r="H101" s="11" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+      <c r="B102" s="11"/>
+      <c r="C102" s="11"/>
+      <c r="D102" s="11"/>
+      <c r="E102" s="11"/>
+      <c r="F102" s="11"/>
+      <c r="G102" s="11"/>
+      <c r="H102" s="11"/>
+    </row>
+    <row r="103" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+      <c r="B103" s="11"/>
+      <c r="C103" s="11"/>
+      <c r="D103" s="11"/>
+      <c r="E103" s="11"/>
+      <c r="F103" s="11"/>
+      <c r="G103" s="11"/>
+      <c r="H103" s="11"/>
+    </row>
+    <row r="104" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+      <c r="B104" s="11"/>
+      <c r="C104" s="11"/>
+      <c r="D104" s="11"/>
+      <c r="E104" s="11"/>
+      <c r="F104" s="11"/>
+      <c r="G104" s="11"/>
+      <c r="H104" s="11"/>
+    </row>
+    <row r="105" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+      <c r="B105" s="11"/>
+      <c r="C105" s="11"/>
+      <c r="D105" s="11"/>
+      <c r="E105" s="11"/>
+      <c r="F105" s="11"/>
+      <c r="G105" s="11"/>
+      <c r="H105" s="11"/>
+    </row>
+    <row r="106" spans="1:8" ht="36" x14ac:dyDescent="0.35">
+      <c r="A106" t="s">
+        <v>208</v>
+      </c>
+      <c r="B106" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="C106" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="D106" s="11"/>
+      <c r="E106" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="F106" s="11"/>
+      <c r="G106" s="11" t="s">
+        <v>141</v>
+      </c>
+      <c r="H106" s="11" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+      <c r="B107" s="11"/>
+      <c r="C107" s="11"/>
+      <c r="D107" s="11"/>
+      <c r="E107" s="11"/>
+      <c r="F107" s="11"/>
+      <c r="G107" s="11"/>
+      <c r="H107" s="11"/>
+    </row>
+    <row r="108" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+      <c r="B108" s="11"/>
+      <c r="C108" s="11"/>
+      <c r="D108" s="11"/>
+      <c r="E108" s="11"/>
+      <c r="F108" s="11"/>
+      <c r="G108" s="11"/>
+      <c r="H108" s="11"/>
+    </row>
+    <row r="109" spans="1:8" ht="54" x14ac:dyDescent="0.35">
+      <c r="A109" t="s">
+        <v>209</v>
+      </c>
+      <c r="B109" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="C109" s="11" t="s">
+        <v>142</v>
+      </c>
+      <c r="D109" s="11"/>
+      <c r="E109" s="12" t="s">
+        <v>143</v>
+      </c>
+      <c r="F109" s="11"/>
+      <c r="G109" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="H109" s="11" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+      <c r="B110" s="11"/>
+      <c r="C110" s="11"/>
+      <c r="D110" s="11"/>
+      <c r="E110" s="11"/>
+      <c r="F110" s="11"/>
+      <c r="G110" s="11"/>
+      <c r="H110" s="11"/>
+    </row>
+    <row r="111" spans="1:8" s="8" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+      <c r="A111" s="5"/>
+      <c r="B111" s="13"/>
+      <c r="C111" s="13"/>
+      <c r="D111" s="13"/>
+      <c r="E111" s="13"/>
+      <c r="F111" s="13"/>
+      <c r="G111" s="13"/>
+      <c r="H111" s="13"/>
+    </row>
+    <row r="112" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+      <c r="B112" s="11"/>
+      <c r="C112" s="11"/>
+      <c r="D112" s="11"/>
+      <c r="E112" s="11"/>
+      <c r="F112" s="11"/>
+      <c r="G112" s="11"/>
+      <c r="H112" s="11"/>
+    </row>
+    <row r="113" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+      <c r="B113" s="11"/>
+      <c r="C113" s="11"/>
+      <c r="D113" s="11"/>
+      <c r="E113" s="11"/>
+      <c r="F113" s="11"/>
+      <c r="G113" s="11"/>
+      <c r="H113" s="11"/>
+    </row>
+    <row r="114" spans="1:8" ht="36" x14ac:dyDescent="0.35">
+      <c r="A114" t="s">
+        <v>210</v>
+      </c>
+      <c r="B114" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="C114" s="11" t="s">
+        <v>146</v>
+      </c>
+      <c r="D114" s="11"/>
+      <c r="E114" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="F114" s="11"/>
+      <c r="G114" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="H114" s="11" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+      <c r="B115" s="11"/>
+      <c r="C115" s="11"/>
+      <c r="D115" s="11"/>
+      <c r="E115" s="11"/>
+      <c r="F115" s="11"/>
+      <c r="G115" s="11"/>
+      <c r="H115" s="11"/>
+    </row>
+    <row r="116" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+      <c r="B116" s="11"/>
+      <c r="C116" s="11"/>
+      <c r="D116" s="11"/>
+      <c r="E116" s="11"/>
+      <c r="F116" s="11"/>
+      <c r="G116" s="11"/>
+      <c r="H116" s="11"/>
+    </row>
+    <row r="117" spans="1:8" ht="54" x14ac:dyDescent="0.35">
+      <c r="A117" t="s">
+        <v>211</v>
+      </c>
+      <c r="B117" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="C117" s="11" t="s">
+        <v>149</v>
+      </c>
+      <c r="D117" s="11"/>
+      <c r="E117" s="12" t="s">
+        <v>150</v>
+      </c>
+      <c r="F117" s="11"/>
+      <c r="G117" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="H117" s="11" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+      <c r="B118" s="11"/>
+      <c r="C118" s="11"/>
+      <c r="D118" s="11"/>
+      <c r="E118" s="11"/>
+      <c r="F118" s="11"/>
+      <c r="G118" s="11"/>
+      <c r="H118" s="11"/>
+    </row>
+    <row r="119" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+      <c r="B119" s="11"/>
+      <c r="C119" s="11"/>
+      <c r="D119" s="11"/>
+      <c r="E119" s="11"/>
+      <c r="F119" s="11"/>
+      <c r="G119" s="11"/>
+      <c r="H119" s="11"/>
+    </row>
+    <row r="120" spans="1:8" ht="36" x14ac:dyDescent="0.35">
+      <c r="A120" t="s">
+        <v>212</v>
+      </c>
+      <c r="B120" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="C120" s="11" t="s">
+        <v>152</v>
+      </c>
+      <c r="D120" s="11"/>
+      <c r="E120" s="12" t="s">
+        <v>153</v>
+      </c>
+      <c r="F120" s="11"/>
+      <c r="G120" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="H120" s="11" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+      <c r="B121" s="11"/>
+      <c r="C121" s="11"/>
+      <c r="D121" s="11"/>
+      <c r="E121" s="11"/>
+      <c r="F121" s="11"/>
+      <c r="G121" s="11"/>
+      <c r="H121" s="11"/>
+    </row>
+    <row r="122" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+      <c r="B122" s="11"/>
+      <c r="C122" s="11"/>
+      <c r="D122" s="11"/>
+      <c r="E122" s="11"/>
+      <c r="F122" s="11"/>
+      <c r="G122" s="11"/>
+      <c r="H122" s="11"/>
+    </row>
+    <row r="123" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+      <c r="B123" s="11"/>
+      <c r="C123" s="11"/>
+      <c r="D123" s="11"/>
+      <c r="E123" s="11"/>
+      <c r="F123" s="11"/>
+      <c r="G123" s="11"/>
+      <c r="H123" s="11"/>
+    </row>
+    <row r="124" spans="1:8" ht="36" x14ac:dyDescent="0.35">
+      <c r="A124" t="s">
+        <v>213</v>
+      </c>
+      <c r="B124" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="C124" s="11" t="s">
+        <v>155</v>
+      </c>
+      <c r="D124" s="11"/>
+      <c r="E124" s="12" t="s">
+        <v>156</v>
+      </c>
+      <c r="F124" s="11"/>
+      <c r="G124" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="H124" s="11" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+      <c r="B125" s="11"/>
+      <c r="C125" s="11"/>
+      <c r="D125" s="11"/>
+      <c r="E125" s="11"/>
+      <c r="F125" s="11"/>
+      <c r="G125" s="11"/>
+      <c r="H125" s="11"/>
+    </row>
+    <row r="126" spans="1:8" ht="36" x14ac:dyDescent="0.35">
+      <c r="A126" t="s">
+        <v>214</v>
+      </c>
+      <c r="B126" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="C126" s="11" t="s">
+        <v>158</v>
+      </c>
+      <c r="D126" s="11"/>
+      <c r="E126" s="12" t="s">
+        <v>156</v>
+      </c>
+      <c r="F126" s="11"/>
+      <c r="G126" s="11" t="s">
+        <v>159</v>
+      </c>
+      <c r="H126" s="11" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+      <c r="B127" s="11"/>
+      <c r="C127" s="11"/>
+      <c r="D127" s="11"/>
+      <c r="E127" s="11"/>
+      <c r="F127" s="11"/>
+      <c r="G127" s="11"/>
+      <c r="H127" s="11"/>
+    </row>
+    <row r="128" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+      <c r="B128" s="11"/>
+      <c r="C128" s="11"/>
+      <c r="D128" s="11"/>
+      <c r="E128" s="11"/>
+      <c r="F128" s="11"/>
+      <c r="G128" s="11"/>
+      <c r="H128" s="11"/>
+    </row>
+    <row r="129" spans="1:8" ht="72" x14ac:dyDescent="0.35">
+      <c r="A129" t="s">
+        <v>215</v>
+      </c>
+      <c r="B129" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="C129" s="11" t="s">
+        <v>160</v>
+      </c>
+      <c r="D129" s="11"/>
+      <c r="E129" s="12" t="s">
+        <v>161</v>
+      </c>
+      <c r="F129" s="11"/>
+      <c r="G129" s="11" t="s">
+        <v>162</v>
+      </c>
+      <c r="H129" s="11" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+      <c r="B130" s="11"/>
+      <c r="C130" s="11"/>
+      <c r="D130" s="11"/>
+      <c r="E130" s="11"/>
+      <c r="F130" s="11"/>
+      <c r="G130" s="11"/>
+      <c r="H130" s="11"/>
+    </row>
+    <row r="131" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+      <c r="B131" s="11"/>
+      <c r="C131" s="11"/>
+      <c r="D131" s="11"/>
+      <c r="E131" s="11"/>
+      <c r="F131" s="11"/>
+      <c r="G131" s="11"/>
+      <c r="H131" s="11"/>
+    </row>
+    <row r="132" spans="1:8" ht="36" x14ac:dyDescent="0.35">
+      <c r="A132" t="s">
+        <v>216</v>
+      </c>
+      <c r="B132" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="C132" s="11" t="s">
+        <v>163</v>
+      </c>
+      <c r="D132" s="11"/>
+      <c r="E132" s="12" t="s">
+        <v>164</v>
+      </c>
+      <c r="F132" s="11"/>
+      <c r="G132" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="H132" s="11" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+      <c r="B133" s="11"/>
+      <c r="C133" s="11"/>
+      <c r="D133" s="11"/>
+      <c r="E133" s="11"/>
+      <c r="F133" s="11"/>
+      <c r="G133" s="11"/>
+      <c r="H133" s="11"/>
+    </row>
+    <row r="134" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+      <c r="B134" s="11"/>
+      <c r="C134" s="11"/>
+      <c r="D134" s="11"/>
+      <c r="E134" s="11"/>
+      <c r="F134" s="11"/>
+      <c r="G134" s="11"/>
+      <c r="H134" s="11"/>
+    </row>
+    <row r="135" spans="1:8" ht="36" x14ac:dyDescent="0.35">
+      <c r="A135" t="s">
+        <v>217</v>
+      </c>
+      <c r="B135" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="C135" s="11" t="s">
+        <v>166</v>
+      </c>
+      <c r="D135" s="11"/>
+      <c r="E135" s="12" t="s">
+        <v>167</v>
+      </c>
+      <c r="F135" s="11"/>
+      <c r="G135" s="11" t="s">
+        <v>168</v>
+      </c>
+      <c r="H135" s="11" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+      <c r="B136" s="11"/>
+      <c r="C136" s="11"/>
+      <c r="D136" s="11"/>
+      <c r="E136" s="11"/>
+      <c r="F136" s="11"/>
+      <c r="G136" s="11"/>
+      <c r="H136" s="11"/>
+    </row>
+    <row r="137" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+      <c r="A137" s="5"/>
+      <c r="B137" s="13"/>
+      <c r="C137" s="13"/>
+      <c r="D137" s="13"/>
+      <c r="E137" s="13"/>
+      <c r="F137" s="13"/>
+      <c r="G137" s="13"/>
+      <c r="H137" s="13"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A2:J3"/>
+  </mergeCells>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{182C8C54-84D0-4BEC-BDA4-96F2309DCD5E}">
-  <dimension ref="A1:Z2"/>
+  <dimension ref="A1:Z19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1490,9 +3648,29 @@
       <c r="Z1" s="3"/>
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="B2" t="s">
-        <v>50</v>
-      </c>
+      <c r="E2" s="4"/>
+    </row>
+    <row r="4" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="E4" s="4"/>
+    </row>
+    <row r="6" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="E6" s="4"/>
+    </row>
+    <row r="7" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="E7" s="4"/>
+    </row>
+    <row r="8" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="E8" s="4"/>
+    </row>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="E11" s="4"/>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="E15" s="4"/>
+    </row>
+    <row r="19" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E19" s="4"/>
+      <c r="G19" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Day 5 Assignment.xlsx
+++ b/Day 5 Assignment.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GUVI Assignment_01\GUVI-Assignments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF734CE0-604B-4FD6-83F6-6D0F9A4EA90E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{642A592B-3822-4F7A-81DE-38315B633E1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -860,7 +860,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -931,7 +931,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -946,13 +946,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -963,20 +959,19 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1261,8 +1256,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Y137"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="C140" sqref="C140"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1279,7 +1274,7 @@
     <col min="10" max="10" width="46.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:25" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1326,681 +1321,670 @@
       <c r="X1" s="3"/>
       <c r="Y1" s="3"/>
     </row>
-    <row r="2" spans="1:25" s="16" customFormat="1" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="19" t="s">
+    <row r="2" spans="1:25" s="13" customFormat="1" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="16" t="s">
         <v>218</v>
       </c>
-      <c r="B2" s="19"/>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="19"/>
-      <c r="G2" s="19"/>
-      <c r="H2" s="19"/>
-      <c r="I2" s="19"/>
-      <c r="J2" s="19"/>
-    </row>
-    <row r="3" spans="1:25" s="16" customFormat="1" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="20"/>
-      <c r="B3" s="20"/>
-      <c r="C3" s="20"/>
-      <c r="D3" s="20"/>
-      <c r="E3" s="20"/>
-      <c r="F3" s="20"/>
-      <c r="G3" s="20"/>
-      <c r="H3" s="20"/>
-      <c r="I3" s="20"/>
-      <c r="J3" s="20"/>
-    </row>
-    <row r="4" spans="1:25" s="8" customFormat="1" ht="90" x14ac:dyDescent="0.35">
+      <c r="B2" s="16"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="16"/>
+      <c r="H2" s="16"/>
+      <c r="I2" s="16"/>
+      <c r="J2" s="16"/>
+    </row>
+    <row r="3" spans="1:25" s="13" customFormat="1" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="17"/>
+      <c r="B3" s="17"/>
+      <c r="C3" s="17"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="17"/>
+      <c r="G3" s="17"/>
+      <c r="H3" s="17"/>
+      <c r="I3" s="17"/>
+      <c r="J3" s="17"/>
+    </row>
+    <row r="4" spans="1:25" ht="90" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>169</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="C4" s="9" t="s">
         <v>109</v>
       </c>
-      <c r="D4" s="11" t="s">
+      <c r="D4" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="12" t="s">
+      <c r="E4" s="10" t="s">
         <v>110</v>
       </c>
-      <c r="F4" s="11"/>
-      <c r="G4" s="11" t="s">
+      <c r="F4" s="9"/>
+      <c r="G4" s="9" t="s">
         <v>111</v>
       </c>
-      <c r="H4" s="11" t="s">
+      <c r="H4" s="9" t="s">
         <v>136</v>
       </c>
       <c r="I4" s="6"/>
       <c r="J4" s="6"/>
-      <c r="K4" s="7"/>
-      <c r="L4" s="7"/>
-      <c r="M4" s="7"/>
-      <c r="N4" s="7"/>
-      <c r="O4" s="7"/>
-      <c r="P4" s="7"/>
-      <c r="Q4" s="7"/>
-      <c r="R4" s="7"/>
-      <c r="S4" s="7"/>
-      <c r="T4" s="7"/>
-      <c r="U4" s="7"/>
-      <c r="V4" s="7"/>
-      <c r="W4" s="7"/>
-      <c r="X4" s="7"/>
-      <c r="Y4" s="7"/>
-    </row>
-    <row r="5" spans="1:25" s="8" customFormat="1" ht="18" x14ac:dyDescent="0.35">
-      <c r="A5"/>
-      <c r="B5" s="11"/>
-      <c r="C5" s="11"/>
-      <c r="D5" s="11"/>
-      <c r="E5" s="11"/>
-      <c r="F5" s="11"/>
-      <c r="G5" s="11"/>
-      <c r="H5" s="11"/>
+      <c r="K4" s="4"/>
+      <c r="L4" s="4"/>
+      <c r="M4" s="4"/>
+      <c r="N4" s="4"/>
+      <c r="O4" s="4"/>
+      <c r="P4" s="4"/>
+      <c r="Q4" s="4"/>
+      <c r="R4" s="4"/>
+      <c r="S4" s="4"/>
+      <c r="T4" s="4"/>
+      <c r="U4" s="4"/>
+      <c r="V4" s="4"/>
+      <c r="W4" s="4"/>
+      <c r="X4" s="4"/>
+      <c r="Y4" s="4"/>
+    </row>
+    <row r="5" spans="1:25" ht="18" x14ac:dyDescent="0.35">
+      <c r="B5" s="9"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="9"/>
       <c r="I5" s="6"/>
       <c r="J5" s="6"/>
-      <c r="K5" s="7"/>
-      <c r="L5" s="7"/>
-      <c r="M5" s="7"/>
-      <c r="N5" s="7"/>
-      <c r="O5" s="7"/>
-      <c r="P5" s="7"/>
-      <c r="Q5" s="7"/>
-      <c r="R5" s="7"/>
-      <c r="S5" s="7"/>
-      <c r="T5" s="7"/>
-      <c r="U5" s="7"/>
-      <c r="V5" s="7"/>
-      <c r="W5" s="7"/>
-      <c r="X5" s="7"/>
-      <c r="Y5" s="7"/>
-    </row>
-    <row r="6" spans="1:25" s="8" customFormat="1" ht="72" x14ac:dyDescent="0.35">
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="4"/>
+      <c r="N5" s="4"/>
+      <c r="O5" s="4"/>
+      <c r="P5" s="4"/>
+      <c r="Q5" s="4"/>
+      <c r="R5" s="4"/>
+      <c r="S5" s="4"/>
+      <c r="T5" s="4"/>
+      <c r="U5" s="4"/>
+      <c r="V5" s="4"/>
+      <c r="W5" s="4"/>
+      <c r="X5" s="4"/>
+      <c r="Y5" s="4"/>
+    </row>
+    <row r="6" spans="1:25" ht="72" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>170</v>
       </c>
-      <c r="B6" s="11" t="s">
+      <c r="B6" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="C6" s="11" t="s">
+      <c r="C6" s="9" t="s">
         <v>112</v>
       </c>
-      <c r="D6" s="11"/>
-      <c r="E6" s="12" t="s">
+      <c r="D6" s="9"/>
+      <c r="E6" s="10" t="s">
         <v>113</v>
       </c>
-      <c r="F6" s="11"/>
-      <c r="G6" s="11" t="s">
+      <c r="F6" s="9"/>
+      <c r="G6" s="9" t="s">
         <v>114</v>
       </c>
-      <c r="H6" s="11" t="s">
+      <c r="H6" s="9" t="s">
         <v>136</v>
       </c>
       <c r="I6" s="6"/>
       <c r="J6" s="6" t="s">
         <v>134</v>
       </c>
-      <c r="K6" s="7"/>
-      <c r="L6" s="7"/>
-      <c r="M6" s="7"/>
-      <c r="N6" s="7"/>
-      <c r="O6" s="7"/>
-      <c r="P6" s="7"/>
-      <c r="Q6" s="7"/>
-      <c r="R6" s="7"/>
-      <c r="S6" s="7"/>
-      <c r="T6" s="7"/>
-      <c r="U6" s="7"/>
-      <c r="V6" s="7"/>
-      <c r="W6" s="7"/>
-      <c r="X6" s="7"/>
-      <c r="Y6" s="7"/>
-    </row>
-    <row r="7" spans="1:25" s="8" customFormat="1" ht="18" x14ac:dyDescent="0.35">
-      <c r="A7"/>
-      <c r="B7" s="11"/>
-      <c r="C7" s="11"/>
-      <c r="D7" s="11"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="11"/>
-      <c r="G7" s="11"/>
-      <c r="H7" s="11"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4"/>
+      <c r="N6" s="4"/>
+      <c r="O6" s="4"/>
+      <c r="P6" s="4"/>
+      <c r="Q6" s="4"/>
+      <c r="R6" s="4"/>
+      <c r="S6" s="4"/>
+      <c r="T6" s="4"/>
+      <c r="U6" s="4"/>
+      <c r="V6" s="4"/>
+      <c r="W6" s="4"/>
+      <c r="X6" s="4"/>
+      <c r="Y6" s="4"/>
+    </row>
+    <row r="7" spans="1:25" ht="18" x14ac:dyDescent="0.35">
+      <c r="B7" s="9"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9"/>
       <c r="I7" s="6"/>
       <c r="J7" s="6"/>
-      <c r="K7" s="7"/>
-      <c r="L7" s="7"/>
-      <c r="M7" s="7"/>
-      <c r="N7" s="7"/>
-      <c r="O7" s="7"/>
-      <c r="P7" s="7"/>
-      <c r="Q7" s="7"/>
-      <c r="R7" s="7"/>
-      <c r="S7" s="7"/>
-      <c r="T7" s="7"/>
-      <c r="U7" s="7"/>
-      <c r="V7" s="7"/>
-      <c r="W7" s="7"/>
-      <c r="X7" s="7"/>
-      <c r="Y7" s="7"/>
-    </row>
-    <row r="8" spans="1:25" s="8" customFormat="1" ht="36" x14ac:dyDescent="0.35">
+      <c r="K7" s="4"/>
+      <c r="L7" s="4"/>
+      <c r="M7" s="4"/>
+      <c r="N7" s="4"/>
+      <c r="O7" s="4"/>
+      <c r="P7" s="4"/>
+      <c r="Q7" s="4"/>
+      <c r="R7" s="4"/>
+      <c r="S7" s="4"/>
+      <c r="T7" s="4"/>
+      <c r="U7" s="4"/>
+      <c r="V7" s="4"/>
+      <c r="W7" s="4"/>
+      <c r="X7" s="4"/>
+      <c r="Y7" s="4"/>
+    </row>
+    <row r="8" spans="1:25" ht="36" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>171</v>
       </c>
-      <c r="B8" s="11" t="s">
+      <c r="B8" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="C8" s="11" t="s">
+      <c r="C8" s="9" t="s">
         <v>123</v>
       </c>
-      <c r="D8" s="11"/>
-      <c r="E8" s="12" t="s">
+      <c r="D8" s="9"/>
+      <c r="E8" s="10" t="s">
         <v>124</v>
       </c>
-      <c r="F8" s="11"/>
-      <c r="G8" s="11" t="s">
+      <c r="F8" s="9"/>
+      <c r="G8" s="9" t="s">
         <v>125</v>
       </c>
-      <c r="H8" s="11" t="s">
+      <c r="H8" s="9" t="s">
         <v>136</v>
       </c>
       <c r="I8" s="6" t="s">
         <v>135</v>
       </c>
       <c r="J8" s="6"/>
-      <c r="K8" s="7"/>
-      <c r="L8" s="7"/>
-      <c r="M8" s="7"/>
-      <c r="N8" s="7"/>
-      <c r="O8" s="7"/>
-      <c r="P8" s="7"/>
-      <c r="Q8" s="7"/>
-      <c r="R8" s="7"/>
-      <c r="S8" s="7"/>
-      <c r="T8" s="7"/>
-      <c r="U8" s="7"/>
-      <c r="V8" s="7"/>
-      <c r="W8" s="7"/>
-      <c r="X8" s="7"/>
-      <c r="Y8" s="7"/>
-    </row>
-    <row r="9" spans="1:25" s="8" customFormat="1" ht="18" x14ac:dyDescent="0.35">
-      <c r="A9"/>
-      <c r="B9" s="11"/>
-      <c r="C9" s="11"/>
-      <c r="D9" s="11"/>
-      <c r="E9" s="12"/>
-      <c r="F9" s="11"/>
-      <c r="G9" s="11"/>
-      <c r="H9" s="11"/>
+      <c r="K8" s="4"/>
+      <c r="L8" s="4"/>
+      <c r="M8" s="4"/>
+      <c r="N8" s="4"/>
+      <c r="O8" s="4"/>
+      <c r="P8" s="4"/>
+      <c r="Q8" s="4"/>
+      <c r="R8" s="4"/>
+      <c r="S8" s="4"/>
+      <c r="T8" s="4"/>
+      <c r="U8" s="4"/>
+      <c r="V8" s="4"/>
+      <c r="W8" s="4"/>
+      <c r="X8" s="4"/>
+      <c r="Y8" s="4"/>
+    </row>
+    <row r="9" spans="1:25" ht="18" x14ac:dyDescent="0.35">
+      <c r="B9" s="9"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="9"/>
       <c r="I9" s="6"/>
       <c r="J9" s="6"/>
-      <c r="K9" s="7"/>
-      <c r="L9" s="7"/>
-      <c r="M9" s="7"/>
-      <c r="N9" s="7"/>
-      <c r="O9" s="7"/>
-      <c r="P9" s="7"/>
-      <c r="Q9" s="7"/>
-      <c r="R9" s="7"/>
-      <c r="S9" s="7"/>
-      <c r="T9" s="7"/>
-      <c r="U9" s="7"/>
-      <c r="V9" s="7"/>
-      <c r="W9" s="7"/>
-      <c r="X9" s="7"/>
-      <c r="Y9" s="7"/>
-    </row>
-    <row r="10" spans="1:25" s="8" customFormat="1" ht="36" x14ac:dyDescent="0.35">
+      <c r="K9" s="4"/>
+      <c r="L9" s="4"/>
+      <c r="M9" s="4"/>
+      <c r="N9" s="4"/>
+      <c r="O9" s="4"/>
+      <c r="P9" s="4"/>
+      <c r="Q9" s="4"/>
+      <c r="R9" s="4"/>
+      <c r="S9" s="4"/>
+      <c r="T9" s="4"/>
+      <c r="U9" s="4"/>
+      <c r="V9" s="4"/>
+      <c r="W9" s="4"/>
+      <c r="X9" s="4"/>
+      <c r="Y9" s="4"/>
+    </row>
+    <row r="10" spans="1:25" ht="36" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>172</v>
       </c>
-      <c r="B10" s="11" t="s">
+      <c r="B10" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="C10" s="11" t="s">
+      <c r="C10" s="9" t="s">
         <v>126</v>
       </c>
-      <c r="D10" s="11"/>
-      <c r="E10" s="12" t="s">
+      <c r="D10" s="9"/>
+      <c r="E10" s="10" t="s">
         <v>127</v>
       </c>
-      <c r="F10" s="11"/>
-      <c r="G10" s="11" t="s">
+      <c r="F10" s="9"/>
+      <c r="G10" s="9" t="s">
         <v>128</v>
       </c>
-      <c r="H10" s="11" t="s">
+      <c r="H10" s="9" t="s">
         <v>137</v>
       </c>
       <c r="I10" s="6"/>
       <c r="J10" s="6"/>
-      <c r="K10" s="7"/>
-      <c r="L10" s="7"/>
-      <c r="M10" s="7"/>
-      <c r="N10" s="7"/>
-      <c r="O10" s="7"/>
-      <c r="P10" s="7"/>
-      <c r="Q10" s="7"/>
-      <c r="R10" s="7"/>
-      <c r="S10" s="7"/>
-      <c r="T10" s="7"/>
-      <c r="U10" s="7"/>
-      <c r="V10" s="7"/>
-      <c r="W10" s="7"/>
-      <c r="X10" s="7"/>
-      <c r="Y10" s="7"/>
-    </row>
-    <row r="11" spans="1:25" s="8" customFormat="1" ht="18" x14ac:dyDescent="0.35">
-      <c r="A11"/>
-      <c r="B11" s="11"/>
-      <c r="C11" s="11"/>
-      <c r="D11" s="11"/>
-      <c r="E11" s="11"/>
-      <c r="F11" s="11"/>
-      <c r="G11" s="11"/>
-      <c r="H11" s="11"/>
+      <c r="K10" s="4"/>
+      <c r="L10" s="4"/>
+      <c r="M10" s="4"/>
+      <c r="N10" s="4"/>
+      <c r="O10" s="4"/>
+      <c r="P10" s="4"/>
+      <c r="Q10" s="4"/>
+      <c r="R10" s="4"/>
+      <c r="S10" s="4"/>
+      <c r="T10" s="4"/>
+      <c r="U10" s="4"/>
+      <c r="V10" s="4"/>
+      <c r="W10" s="4"/>
+      <c r="X10" s="4"/>
+      <c r="Y10" s="4"/>
+    </row>
+    <row r="11" spans="1:25" ht="18" x14ac:dyDescent="0.35">
+      <c r="B11" s="9"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="9"/>
       <c r="I11" s="6"/>
       <c r="J11" s="6"/>
-      <c r="K11" s="7"/>
-      <c r="L11" s="7"/>
-      <c r="M11" s="7"/>
-      <c r="N11" s="7"/>
-      <c r="O11" s="7"/>
-      <c r="P11" s="7"/>
-      <c r="Q11" s="7"/>
-      <c r="R11" s="7"/>
-      <c r="S11" s="7"/>
-      <c r="T11" s="7"/>
-      <c r="U11" s="7"/>
-      <c r="V11" s="7"/>
-      <c r="W11" s="7"/>
-      <c r="X11" s="7"/>
-      <c r="Y11" s="7"/>
-    </row>
-    <row r="12" spans="1:25" s="8" customFormat="1" ht="18" x14ac:dyDescent="0.35">
-      <c r="A12"/>
-      <c r="B12" s="11"/>
-      <c r="C12" s="11"/>
-      <c r="D12" s="11"/>
-      <c r="E12" s="11"/>
-      <c r="F12" s="11"/>
-      <c r="G12" s="11"/>
-      <c r="H12" s="11"/>
+      <c r="K11" s="4"/>
+      <c r="L11" s="4"/>
+      <c r="M11" s="4"/>
+      <c r="N11" s="4"/>
+      <c r="O11" s="4"/>
+      <c r="P11" s="4"/>
+      <c r="Q11" s="4"/>
+      <c r="R11" s="4"/>
+      <c r="S11" s="4"/>
+      <c r="T11" s="4"/>
+      <c r="U11" s="4"/>
+      <c r="V11" s="4"/>
+      <c r="W11" s="4"/>
+      <c r="X11" s="4"/>
+      <c r="Y11" s="4"/>
+    </row>
+    <row r="12" spans="1:25" ht="18" x14ac:dyDescent="0.35">
+      <c r="B12" s="9"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="9"/>
       <c r="I12" s="6"/>
       <c r="J12" s="6"/>
-      <c r="K12" s="7"/>
-      <c r="L12" s="7"/>
-      <c r="M12" s="7"/>
-      <c r="N12" s="7"/>
-      <c r="O12" s="7"/>
-      <c r="P12" s="7"/>
-      <c r="Q12" s="7"/>
-      <c r="R12" s="7"/>
-      <c r="S12" s="7"/>
-      <c r="T12" s="7"/>
-      <c r="U12" s="7"/>
-      <c r="V12" s="7"/>
-      <c r="W12" s="7"/>
-      <c r="X12" s="7"/>
-      <c r="Y12" s="7"/>
-    </row>
-    <row r="13" spans="1:25" s="8" customFormat="1" ht="72" x14ac:dyDescent="0.35">
+      <c r="K12" s="4"/>
+      <c r="L12" s="4"/>
+      <c r="M12" s="4"/>
+      <c r="N12" s="4"/>
+      <c r="O12" s="4"/>
+      <c r="P12" s="4"/>
+      <c r="Q12" s="4"/>
+      <c r="R12" s="4"/>
+      <c r="S12" s="4"/>
+      <c r="T12" s="4"/>
+      <c r="U12" s="4"/>
+      <c r="V12" s="4"/>
+      <c r="W12" s="4"/>
+      <c r="X12" s="4"/>
+      <c r="Y12" s="4"/>
+    </row>
+    <row r="13" spans="1:25" ht="72" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>173</v>
       </c>
-      <c r="B13" s="11" t="s">
+      <c r="B13" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="C13" s="11" t="s">
+      <c r="C13" s="9" t="s">
         <v>115</v>
       </c>
-      <c r="D13" s="11"/>
-      <c r="E13" s="12" t="s">
+      <c r="D13" s="9"/>
+      <c r="E13" s="10" t="s">
         <v>116</v>
       </c>
-      <c r="F13" s="11"/>
-      <c r="G13" s="11" t="s">
+      <c r="F13" s="9"/>
+      <c r="G13" s="9" t="s">
         <v>117</v>
       </c>
-      <c r="H13" s="11" t="s">
+      <c r="H13" s="9" t="s">
         <v>136</v>
       </c>
       <c r="I13" s="6"/>
       <c r="J13" s="6"/>
-      <c r="K13" s="7"/>
-      <c r="L13" s="7"/>
-      <c r="M13" s="7"/>
-      <c r="N13" s="7"/>
-      <c r="O13" s="7"/>
-      <c r="P13" s="7"/>
-      <c r="Q13" s="7"/>
-      <c r="R13" s="7"/>
-      <c r="S13" s="7"/>
-      <c r="T13" s="7"/>
-      <c r="U13" s="7"/>
-      <c r="V13" s="7"/>
-      <c r="W13" s="7"/>
-      <c r="X13" s="7"/>
-      <c r="Y13" s="7"/>
-    </row>
-    <row r="14" spans="1:25" s="8" customFormat="1" ht="18" x14ac:dyDescent="0.35">
-      <c r="A14"/>
-      <c r="B14" s="11"/>
-      <c r="C14" s="11"/>
-      <c r="D14" s="11"/>
-      <c r="E14" s="11"/>
-      <c r="F14" s="11"/>
-      <c r="G14" s="11"/>
-      <c r="H14" s="11"/>
+      <c r="K13" s="4"/>
+      <c r="L13" s="4"/>
+      <c r="M13" s="4"/>
+      <c r="N13" s="4"/>
+      <c r="O13" s="4"/>
+      <c r="P13" s="4"/>
+      <c r="Q13" s="4"/>
+      <c r="R13" s="4"/>
+      <c r="S13" s="4"/>
+      <c r="T13" s="4"/>
+      <c r="U13" s="4"/>
+      <c r="V13" s="4"/>
+      <c r="W13" s="4"/>
+      <c r="X13" s="4"/>
+      <c r="Y13" s="4"/>
+    </row>
+    <row r="14" spans="1:25" ht="18" x14ac:dyDescent="0.35">
+      <c r="B14" s="9"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="9"/>
+      <c r="H14" s="9"/>
       <c r="I14" s="6"/>
       <c r="J14" s="6"/>
-      <c r="K14" s="7"/>
-      <c r="L14" s="7"/>
-      <c r="M14" s="7"/>
-      <c r="N14" s="7"/>
-      <c r="O14" s="7"/>
-      <c r="P14" s="7"/>
-      <c r="Q14" s="7"/>
-      <c r="R14" s="7"/>
-      <c r="S14" s="7"/>
-      <c r="T14" s="7"/>
-      <c r="U14" s="7"/>
-      <c r="V14" s="7"/>
-      <c r="W14" s="7"/>
-      <c r="X14" s="7"/>
-      <c r="Y14" s="7"/>
-    </row>
-    <row r="15" spans="1:25" s="8" customFormat="1" ht="18" x14ac:dyDescent="0.35">
-      <c r="A15"/>
-      <c r="B15" s="11"/>
-      <c r="C15" s="11"/>
-      <c r="D15" s="11"/>
-      <c r="E15" s="11"/>
-      <c r="F15" s="11"/>
-      <c r="G15" s="11"/>
-      <c r="H15" s="11"/>
+      <c r="K14" s="4"/>
+      <c r="L14" s="4"/>
+      <c r="M14" s="4"/>
+      <c r="N14" s="4"/>
+      <c r="O14" s="4"/>
+      <c r="P14" s="4"/>
+      <c r="Q14" s="4"/>
+      <c r="R14" s="4"/>
+      <c r="S14" s="4"/>
+      <c r="T14" s="4"/>
+      <c r="U14" s="4"/>
+      <c r="V14" s="4"/>
+      <c r="W14" s="4"/>
+      <c r="X14" s="4"/>
+      <c r="Y14" s="4"/>
+    </row>
+    <row r="15" spans="1:25" ht="18" x14ac:dyDescent="0.35">
+      <c r="B15" s="9"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="9"/>
+      <c r="H15" s="9"/>
       <c r="I15" s="6"/>
       <c r="J15" s="6"/>
-      <c r="K15" s="7"/>
-      <c r="L15" s="7"/>
-      <c r="M15" s="7"/>
-      <c r="N15" s="7"/>
-      <c r="O15" s="7"/>
-      <c r="P15" s="7"/>
-      <c r="Q15" s="7"/>
-      <c r="R15" s="7"/>
-      <c r="S15" s="7"/>
-      <c r="T15" s="7"/>
-      <c r="U15" s="7"/>
-      <c r="V15" s="7"/>
-      <c r="W15" s="7"/>
-      <c r="X15" s="7"/>
-      <c r="Y15" s="7"/>
-    </row>
-    <row r="16" spans="1:25" s="8" customFormat="1" ht="18" x14ac:dyDescent="0.35">
-      <c r="A16"/>
-      <c r="B16" s="11"/>
-      <c r="C16" s="11"/>
-      <c r="D16" s="11"/>
-      <c r="E16" s="11"/>
-      <c r="F16" s="11"/>
-      <c r="G16" s="11"/>
-      <c r="H16" s="11"/>
+      <c r="K15" s="4"/>
+      <c r="L15" s="4"/>
+      <c r="M15" s="4"/>
+      <c r="N15" s="4"/>
+      <c r="O15" s="4"/>
+      <c r="P15" s="4"/>
+      <c r="Q15" s="4"/>
+      <c r="R15" s="4"/>
+      <c r="S15" s="4"/>
+      <c r="T15" s="4"/>
+      <c r="U15" s="4"/>
+      <c r="V15" s="4"/>
+      <c r="W15" s="4"/>
+      <c r="X15" s="4"/>
+      <c r="Y15" s="4"/>
+    </row>
+    <row r="16" spans="1:25" ht="18" x14ac:dyDescent="0.35">
+      <c r="B16" s="9"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="9"/>
+      <c r="G16" s="9"/>
+      <c r="H16" s="9"/>
       <c r="I16" s="6"/>
       <c r="J16" s="6"/>
-      <c r="K16" s="7"/>
-      <c r="L16" s="7"/>
-      <c r="M16" s="7"/>
-      <c r="N16" s="7"/>
-      <c r="O16" s="7"/>
-      <c r="P16" s="7"/>
-      <c r="Q16" s="7"/>
-      <c r="R16" s="7"/>
-      <c r="S16" s="7"/>
-      <c r="T16" s="7"/>
-      <c r="U16" s="7"/>
-      <c r="V16" s="7"/>
-      <c r="W16" s="7"/>
-      <c r="X16" s="7"/>
-      <c r="Y16" s="7"/>
-    </row>
-    <row r="17" spans="1:25" s="8" customFormat="1" ht="90" x14ac:dyDescent="0.35">
+      <c r="K16" s="4"/>
+      <c r="L16" s="4"/>
+      <c r="M16" s="4"/>
+      <c r="N16" s="4"/>
+      <c r="O16" s="4"/>
+      <c r="P16" s="4"/>
+      <c r="Q16" s="4"/>
+      <c r="R16" s="4"/>
+      <c r="S16" s="4"/>
+      <c r="T16" s="4"/>
+      <c r="U16" s="4"/>
+      <c r="V16" s="4"/>
+      <c r="W16" s="4"/>
+      <c r="X16" s="4"/>
+      <c r="Y16" s="4"/>
+    </row>
+    <row r="17" spans="1:25" ht="90" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>174</v>
       </c>
-      <c r="B17" s="11" t="s">
+      <c r="B17" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="C17" s="11" t="s">
+      <c r="C17" s="9" t="s">
         <v>121</v>
       </c>
-      <c r="D17" s="11"/>
-      <c r="E17" s="12" t="s">
+      <c r="D17" s="9"/>
+      <c r="E17" s="10" t="s">
         <v>110</v>
       </c>
-      <c r="F17" s="11"/>
-      <c r="G17" s="11" t="s">
+      <c r="F17" s="9"/>
+      <c r="G17" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="H17" s="11" t="s">
+      <c r="H17" s="9" t="s">
         <v>136</v>
       </c>
       <c r="I17" s="6"/>
       <c r="J17" s="6"/>
-      <c r="K17" s="7"/>
-      <c r="L17" s="7"/>
-      <c r="M17" s="7"/>
-      <c r="N17" s="7"/>
-      <c r="O17" s="7"/>
-      <c r="P17" s="7"/>
-      <c r="Q17" s="7"/>
-      <c r="R17" s="7"/>
-      <c r="S17" s="7"/>
-      <c r="T17" s="7"/>
-      <c r="U17" s="7"/>
-      <c r="V17" s="7"/>
-      <c r="W17" s="7"/>
-      <c r="X17" s="7"/>
-      <c r="Y17" s="7"/>
-    </row>
-    <row r="18" spans="1:25" s="8" customFormat="1" ht="18" x14ac:dyDescent="0.35">
-      <c r="A18"/>
-      <c r="B18" s="11"/>
-      <c r="C18" s="11"/>
-      <c r="D18" s="11"/>
-      <c r="E18" s="11"/>
-      <c r="F18" s="11"/>
-      <c r="G18" s="11"/>
-      <c r="H18" s="11"/>
+      <c r="K17" s="4"/>
+      <c r="L17" s="4"/>
+      <c r="M17" s="4"/>
+      <c r="N17" s="4"/>
+      <c r="O17" s="4"/>
+      <c r="P17" s="4"/>
+      <c r="Q17" s="4"/>
+      <c r="R17" s="4"/>
+      <c r="S17" s="4"/>
+      <c r="T17" s="4"/>
+      <c r="U17" s="4"/>
+      <c r="V17" s="4"/>
+      <c r="W17" s="4"/>
+      <c r="X17" s="4"/>
+      <c r="Y17" s="4"/>
+    </row>
+    <row r="18" spans="1:25" ht="18" x14ac:dyDescent="0.35">
+      <c r="B18" s="9"/>
+      <c r="C18" s="9"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="9"/>
+      <c r="G18" s="9"/>
+      <c r="H18" s="9"/>
       <c r="I18" s="6"/>
       <c r="J18" s="6"/>
-      <c r="K18" s="7"/>
-      <c r="L18" s="7"/>
-      <c r="M18" s="7"/>
-      <c r="N18" s="7"/>
-      <c r="O18" s="7"/>
-      <c r="P18" s="7"/>
-      <c r="Q18" s="7"/>
-      <c r="R18" s="7"/>
-      <c r="S18" s="7"/>
-      <c r="T18" s="7"/>
-      <c r="U18" s="7"/>
-      <c r="V18" s="7"/>
-      <c r="W18" s="7"/>
-      <c r="X18" s="7"/>
-      <c r="Y18" s="7"/>
-    </row>
-    <row r="19" spans="1:25" s="8" customFormat="1" ht="18" x14ac:dyDescent="0.35">
-      <c r="A19"/>
-      <c r="B19" s="11"/>
-      <c r="C19" s="11"/>
-      <c r="D19" s="11"/>
-      <c r="E19" s="11"/>
-      <c r="F19" s="11"/>
-      <c r="G19" s="11"/>
-      <c r="H19" s="11"/>
+      <c r="K18" s="4"/>
+      <c r="L18" s="4"/>
+      <c r="M18" s="4"/>
+      <c r="N18" s="4"/>
+      <c r="O18" s="4"/>
+      <c r="P18" s="4"/>
+      <c r="Q18" s="4"/>
+      <c r="R18" s="4"/>
+      <c r="S18" s="4"/>
+      <c r="T18" s="4"/>
+      <c r="U18" s="4"/>
+      <c r="V18" s="4"/>
+      <c r="W18" s="4"/>
+      <c r="X18" s="4"/>
+      <c r="Y18" s="4"/>
+    </row>
+    <row r="19" spans="1:25" ht="18" x14ac:dyDescent="0.35">
+      <c r="B19" s="9"/>
+      <c r="C19" s="9"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="9"/>
+      <c r="G19" s="9"/>
+      <c r="H19" s="9"/>
       <c r="I19" s="6"/>
       <c r="J19" s="6"/>
-      <c r="K19" s="7"/>
-      <c r="L19" s="7"/>
-      <c r="M19" s="7"/>
-      <c r="N19" s="7"/>
-      <c r="O19" s="7"/>
-      <c r="P19" s="7"/>
-      <c r="Q19" s="7"/>
-      <c r="R19" s="7"/>
-      <c r="S19" s="7"/>
-      <c r="T19" s="7"/>
-      <c r="U19" s="7"/>
-      <c r="V19" s="7"/>
-      <c r="W19" s="7"/>
-      <c r="X19" s="7"/>
-      <c r="Y19" s="7"/>
-    </row>
-    <row r="20" spans="1:25" s="8" customFormat="1" ht="18" x14ac:dyDescent="0.35">
-      <c r="A20"/>
-      <c r="B20" s="11"/>
-      <c r="C20" s="11"/>
-      <c r="D20" s="11"/>
-      <c r="E20" s="11"/>
-      <c r="F20" s="11"/>
-      <c r="G20" s="11"/>
-      <c r="H20" s="11"/>
+      <c r="K19" s="4"/>
+      <c r="L19" s="4"/>
+      <c r="M19" s="4"/>
+      <c r="N19" s="4"/>
+      <c r="O19" s="4"/>
+      <c r="P19" s="4"/>
+      <c r="Q19" s="4"/>
+      <c r="R19" s="4"/>
+      <c r="S19" s="4"/>
+      <c r="T19" s="4"/>
+      <c r="U19" s="4"/>
+      <c r="V19" s="4"/>
+      <c r="W19" s="4"/>
+      <c r="X19" s="4"/>
+      <c r="Y19" s="4"/>
+    </row>
+    <row r="20" spans="1:25" ht="18" x14ac:dyDescent="0.35">
+      <c r="B20" s="9"/>
+      <c r="C20" s="9"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="9"/>
+      <c r="G20" s="9"/>
+      <c r="H20" s="9"/>
       <c r="I20" s="6"/>
       <c r="J20" s="6"/>
-      <c r="K20" s="7"/>
-      <c r="L20" s="7"/>
-      <c r="M20" s="7"/>
-      <c r="N20" s="7"/>
-      <c r="O20" s="7"/>
-      <c r="P20" s="7"/>
-      <c r="Q20" s="7"/>
-      <c r="R20" s="7"/>
-      <c r="S20" s="7"/>
-      <c r="T20" s="7"/>
-      <c r="U20" s="7"/>
-      <c r="V20" s="7"/>
-      <c r="W20" s="7"/>
-      <c r="X20" s="7"/>
-      <c r="Y20" s="7"/>
-    </row>
-    <row r="21" spans="1:25" s="8" customFormat="1" ht="54" x14ac:dyDescent="0.35">
+      <c r="K20" s="4"/>
+      <c r="L20" s="4"/>
+      <c r="M20" s="4"/>
+      <c r="N20" s="4"/>
+      <c r="O20" s="4"/>
+      <c r="P20" s="4"/>
+      <c r="Q20" s="4"/>
+      <c r="R20" s="4"/>
+      <c r="S20" s="4"/>
+      <c r="T20" s="4"/>
+      <c r="U20" s="4"/>
+      <c r="V20" s="4"/>
+      <c r="W20" s="4"/>
+      <c r="X20" s="4"/>
+      <c r="Y20" s="4"/>
+    </row>
+    <row r="21" spans="1:25" ht="54" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>175</v>
       </c>
-      <c r="B21" s="11" t="s">
+      <c r="B21" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="C21" s="11" t="s">
+      <c r="C21" s="9" t="s">
         <v>119</v>
       </c>
-      <c r="D21" s="11"/>
-      <c r="E21" s="12" t="s">
+      <c r="D21" s="9"/>
+      <c r="E21" s="10" t="s">
         <v>120</v>
       </c>
-      <c r="F21" s="11"/>
-      <c r="G21" s="12" t="s">
+      <c r="F21" s="9"/>
+      <c r="G21" s="10" t="s">
         <v>122</v>
       </c>
-      <c r="H21" s="11" t="s">
+      <c r="H21" s="9" t="s">
         <v>136</v>
       </c>
       <c r="I21" s="6"/>
       <c r="J21" s="6"/>
-      <c r="K21" s="7"/>
-      <c r="L21" s="7"/>
-      <c r="M21" s="7"/>
-      <c r="N21" s="7"/>
-      <c r="O21" s="7"/>
-      <c r="P21" s="7"/>
-      <c r="Q21" s="7"/>
-      <c r="R21" s="7"/>
-      <c r="S21" s="7"/>
-      <c r="T21" s="7"/>
-      <c r="U21" s="7"/>
-      <c r="V21" s="7"/>
-      <c r="W21" s="7"/>
-      <c r="X21" s="7"/>
-      <c r="Y21" s="7"/>
-    </row>
-    <row r="22" spans="1:25" s="8" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+      <c r="K21" s="4"/>
+      <c r="L21" s="4"/>
+      <c r="M21" s="4"/>
+      <c r="N21" s="4"/>
+      <c r="O21" s="4"/>
+      <c r="P21" s="4"/>
+      <c r="Q21" s="4"/>
+      <c r="R21" s="4"/>
+      <c r="S21" s="4"/>
+      <c r="T21" s="4"/>
+      <c r="U21" s="4"/>
+      <c r="V21" s="4"/>
+      <c r="W21" s="4"/>
+      <c r="X21" s="4"/>
+      <c r="Y21" s="4"/>
+    </row>
+    <row r="22" spans="1:25" ht="18" x14ac:dyDescent="0.35">
       <c r="A22" s="6"/>
-      <c r="B22" s="11"/>
-      <c r="C22" s="11"/>
-      <c r="D22" s="11"/>
-      <c r="E22" s="11"/>
-      <c r="F22" s="11"/>
-      <c r="G22" s="11"/>
-      <c r="H22" s="11"/>
+      <c r="B22" s="9"/>
+      <c r="C22" s="9"/>
+      <c r="D22" s="9"/>
+      <c r="E22" s="9"/>
+      <c r="F22" s="9"/>
+      <c r="G22" s="9"/>
+      <c r="H22" s="9"/>
       <c r="I22" s="6"/>
       <c r="J22" s="6"/>
-      <c r="K22" s="7"/>
-      <c r="L22" s="7"/>
-      <c r="M22" s="7"/>
-      <c r="N22" s="7"/>
-      <c r="O22" s="7"/>
-      <c r="P22" s="7"/>
-      <c r="Q22" s="7"/>
-      <c r="R22" s="7"/>
-      <c r="S22" s="7"/>
-      <c r="T22" s="7"/>
-      <c r="U22" s="7"/>
-      <c r="V22" s="7"/>
-      <c r="W22" s="7"/>
-      <c r="X22" s="7"/>
-      <c r="Y22" s="7"/>
-    </row>
-    <row r="23" spans="1:25" s="8" customFormat="1" ht="18" x14ac:dyDescent="0.35">
-      <c r="A23" s="17"/>
-      <c r="B23" s="18"/>
-      <c r="C23" s="18"/>
-      <c r="D23" s="18"/>
-      <c r="E23" s="18"/>
-      <c r="F23" s="18"/>
-      <c r="G23" s="18"/>
-      <c r="H23" s="18"/>
-      <c r="I23" s="17"/>
+      <c r="K22" s="4"/>
+      <c r="L22" s="4"/>
+      <c r="M22" s="4"/>
+      <c r="N22" s="4"/>
+      <c r="O22" s="4"/>
+      <c r="P22" s="4"/>
+      <c r="Q22" s="4"/>
+      <c r="R22" s="4"/>
+      <c r="S22" s="4"/>
+      <c r="T22" s="4"/>
+      <c r="U22" s="4"/>
+      <c r="V22" s="4"/>
+      <c r="W22" s="4"/>
+      <c r="X22" s="4"/>
+      <c r="Y22" s="4"/>
+    </row>
+    <row r="23" spans="1:25" ht="18" x14ac:dyDescent="0.35">
+      <c r="A23" s="14"/>
+      <c r="B23" s="15"/>
+      <c r="C23" s="15"/>
+      <c r="D23" s="15"/>
+      <c r="E23" s="15"/>
+      <c r="F23" s="15"/>
+      <c r="G23" s="15"/>
+      <c r="H23" s="15"/>
+      <c r="I23" s="14"/>
       <c r="J23" s="6"/>
-      <c r="K23" s="7"/>
-      <c r="L23" s="7"/>
-      <c r="M23" s="7"/>
-      <c r="N23" s="7"/>
-      <c r="O23" s="7"/>
-      <c r="P23" s="7"/>
-      <c r="Q23" s="7"/>
-      <c r="R23" s="7"/>
-      <c r="S23" s="7"/>
-      <c r="T23" s="7"/>
-      <c r="U23" s="7"/>
-      <c r="V23" s="7"/>
-      <c r="W23" s="7"/>
-      <c r="X23" s="7"/>
-      <c r="Y23" s="7"/>
+      <c r="K23" s="4"/>
+      <c r="L23" s="4"/>
+      <c r="M23" s="4"/>
+      <c r="N23" s="4"/>
+      <c r="O23" s="4"/>
+      <c r="P23" s="4"/>
+      <c r="Q23" s="4"/>
+      <c r="R23" s="4"/>
+      <c r="S23" s="4"/>
+      <c r="T23" s="4"/>
+      <c r="U23" s="4"/>
+      <c r="V23" s="4"/>
+      <c r="W23" s="4"/>
+      <c r="X23" s="4"/>
+      <c r="Y23" s="4"/>
     </row>
     <row r="24" spans="1:25" ht="54" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>181</v>
       </c>
-      <c r="B24" s="9" t="s">
+      <c r="B24" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="C24" s="11" t="s">
+      <c r="C24" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="D24" s="11" t="s">
+      <c r="D24" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="E24" s="12" t="s">
+      <c r="E24" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="F24" s="11"/>
-      <c r="G24" s="11"/>
-      <c r="H24" s="11" t="s">
+      <c r="F24" s="9"/>
+      <c r="G24" s="9"/>
+      <c r="H24" s="9" t="s">
         <v>136</v>
       </c>
     </row>
@@ -2008,1562 +1992,1559 @@
       <c r="A25" t="s">
         <v>176</v>
       </c>
-      <c r="B25" s="9" t="s">
+      <c r="B25" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="C25" s="11" t="s">
+      <c r="C25" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="D25" s="11"/>
-      <c r="E25" s="12" t="s">
+      <c r="D25" s="9"/>
+      <c r="E25" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="F25" s="11"/>
-      <c r="G25" s="12" t="s">
+      <c r="F25" s="9"/>
+      <c r="G25" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="H25" s="11" t="s">
+      <c r="H25" s="9" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="26" spans="1:25" ht="18" x14ac:dyDescent="0.35">
-      <c r="B26" s="11"/>
-      <c r="C26" s="11"/>
-      <c r="D26" s="11"/>
-      <c r="E26" s="11"/>
-      <c r="F26" s="11"/>
-      <c r="G26" s="11" t="s">
+      <c r="B26" s="9"/>
+      <c r="C26" s="9"/>
+      <c r="D26" s="9"/>
+      <c r="E26" s="9"/>
+      <c r="F26" s="9"/>
+      <c r="G26" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="H26" s="11"/>
+      <c r="H26" s="9"/>
     </row>
     <row r="27" spans="1:25" ht="72" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>177</v>
       </c>
-      <c r="B27" s="9" t="s">
+      <c r="B27" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="C27" s="11" t="s">
+      <c r="C27" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="D27" s="11"/>
-      <c r="E27" s="12" t="s">
+      <c r="D27" s="9"/>
+      <c r="E27" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="F27" s="11" t="s">
+      <c r="F27" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="G27" s="11" t="s">
+      <c r="G27" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="H27" s="11" t="s">
+      <c r="H27" s="9" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="28" spans="1:25" ht="18" x14ac:dyDescent="0.35">
-      <c r="B28" s="11"/>
-      <c r="C28" s="11"/>
-      <c r="D28" s="11"/>
-      <c r="E28" s="11"/>
-      <c r="F28" s="11"/>
-      <c r="G28" s="11"/>
-      <c r="H28" s="11"/>
+      <c r="B28" s="9"/>
+      <c r="C28" s="9"/>
+      <c r="D28" s="9"/>
+      <c r="E28" s="9"/>
+      <c r="F28" s="9"/>
+      <c r="G28" s="9"/>
+      <c r="H28" s="9"/>
     </row>
     <row r="29" spans="1:25" ht="90" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>178</v>
       </c>
-      <c r="B29" s="9" t="s">
+      <c r="B29" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="C29" s="11" t="s">
+      <c r="C29" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="D29" s="11"/>
-      <c r="E29" s="12" t="s">
+      <c r="D29" s="9"/>
+      <c r="E29" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="F29" s="11"/>
-      <c r="G29" s="12" t="s">
+      <c r="F29" s="9"/>
+      <c r="G29" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="H29" s="11" t="s">
+      <c r="H29" s="9" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="30" spans="1:25" ht="18" x14ac:dyDescent="0.35">
-      <c r="B30" s="11"/>
-      <c r="C30" s="11"/>
-      <c r="D30" s="11"/>
-      <c r="E30" s="11"/>
-      <c r="F30" s="11"/>
-      <c r="G30" s="11"/>
-      <c r="H30" s="11"/>
+      <c r="B30" s="9"/>
+      <c r="C30" s="9"/>
+      <c r="D30" s="9"/>
+      <c r="E30" s="9"/>
+      <c r="F30" s="9"/>
+      <c r="G30" s="9"/>
+      <c r="H30" s="9"/>
     </row>
     <row r="31" spans="1:25" ht="90" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>179</v>
       </c>
-      <c r="B31" s="9" t="s">
+      <c r="B31" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="C31" s="11" t="s">
+      <c r="C31" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="D31" s="11"/>
-      <c r="E31" s="12" t="s">
+      <c r="D31" s="9"/>
+      <c r="E31" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="F31" s="11"/>
-      <c r="G31" s="12" t="s">
+      <c r="F31" s="9"/>
+      <c r="G31" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="H31" s="11" t="s">
+      <c r="H31" s="9" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="32" spans="1:25" ht="18" x14ac:dyDescent="0.35">
-      <c r="B32" s="9"/>
-      <c r="C32" s="11"/>
-      <c r="D32" s="11"/>
-      <c r="E32" s="12"/>
-      <c r="F32" s="11"/>
-      <c r="G32" s="11"/>
-      <c r="H32" s="11"/>
+      <c r="B32" s="7"/>
+      <c r="C32" s="9"/>
+      <c r="D32" s="9"/>
+      <c r="E32" s="10"/>
+      <c r="F32" s="9"/>
+      <c r="G32" s="9"/>
+      <c r="H32" s="9"/>
     </row>
     <row r="33" spans="1:8" ht="36" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>180</v>
       </c>
-      <c r="B33" s="9" t="s">
+      <c r="B33" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="C33" s="11" t="s">
+      <c r="C33" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="D33" s="11"/>
-      <c r="E33" s="12" t="s">
+      <c r="D33" s="9"/>
+      <c r="E33" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="F33" s="11"/>
-      <c r="G33" s="11" t="s">
+      <c r="F33" s="9"/>
+      <c r="G33" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="H33" s="11" t="s">
+      <c r="H33" s="9" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="34" spans="1:8" ht="18" x14ac:dyDescent="0.35">
-      <c r="B34" s="9"/>
-      <c r="C34" s="11"/>
-      <c r="D34" s="11"/>
-      <c r="E34" s="12"/>
-      <c r="F34" s="11"/>
-      <c r="G34" s="11"/>
-      <c r="H34" s="11"/>
+      <c r="B34" s="7"/>
+      <c r="C34" s="9"/>
+      <c r="D34" s="9"/>
+      <c r="E34" s="10"/>
+      <c r="F34" s="9"/>
+      <c r="G34" s="9"/>
+      <c r="H34" s="9"/>
     </row>
     <row r="35" spans="1:8" ht="54" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>182</v>
       </c>
-      <c r="B35" s="9" t="s">
+      <c r="B35" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="C35" s="11" t="s">
+      <c r="C35" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="D35" s="11"/>
-      <c r="E35" s="12" t="s">
+      <c r="D35" s="9"/>
+      <c r="E35" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="F35" s="11"/>
-      <c r="G35" s="11" t="s">
+      <c r="F35" s="9"/>
+      <c r="G35" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="H35" s="11"/>
+      <c r="H35" s="9"/>
     </row>
     <row r="36" spans="1:8" ht="18" x14ac:dyDescent="0.35">
-      <c r="B36" s="9"/>
-      <c r="C36" s="11"/>
-      <c r="D36" s="11"/>
-      <c r="E36" s="12"/>
-      <c r="F36" s="11"/>
-      <c r="G36" s="11"/>
-      <c r="H36" s="11"/>
-    </row>
-    <row r="37" spans="1:8" s="8" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+      <c r="B36" s="7"/>
+      <c r="C36" s="9"/>
+      <c r="D36" s="9"/>
+      <c r="E36" s="10"/>
+      <c r="F36" s="9"/>
+      <c r="G36" s="9"/>
+      <c r="H36" s="9"/>
+    </row>
+    <row r="37" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A37" s="5"/>
-      <c r="B37" s="10"/>
-      <c r="C37" s="13"/>
-      <c r="D37" s="13"/>
-      <c r="E37" s="14"/>
-      <c r="F37" s="13"/>
-      <c r="G37" s="13"/>
-      <c r="H37" s="13"/>
-    </row>
-    <row r="38" spans="1:8" s="8" customFormat="1" ht="18" x14ac:dyDescent="0.35">
-      <c r="B38" s="15"/>
-      <c r="C38" s="15"/>
-      <c r="D38" s="15"/>
-      <c r="E38" s="15"/>
-      <c r="F38" s="15"/>
-      <c r="G38" s="15"/>
-      <c r="H38" s="15"/>
+      <c r="B37" s="8"/>
+      <c r="C37" s="11"/>
+      <c r="D37" s="11"/>
+      <c r="E37" s="12"/>
+      <c r="F37" s="11"/>
+      <c r="G37" s="11"/>
+      <c r="H37" s="11"/>
+    </row>
+    <row r="38" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+      <c r="B38" s="9"/>
+      <c r="C38" s="9"/>
+      <c r="D38" s="9"/>
+      <c r="E38" s="9"/>
+      <c r="F38" s="9"/>
+      <c r="G38" s="9"/>
+      <c r="H38" s="9"/>
     </row>
     <row r="39" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>184</v>
       </c>
-      <c r="B39" s="9" t="s">
+      <c r="B39" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="C39" s="11" t="s">
+      <c r="C39" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="D39" s="11"/>
-      <c r="E39" s="12" t="s">
+      <c r="D39" s="9"/>
+      <c r="E39" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="F39" s="11"/>
-      <c r="G39" s="11" t="s">
+      <c r="F39" s="9"/>
+      <c r="G39" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="H39" s="11" t="s">
+      <c r="H39" s="9" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="40" spans="1:8" ht="18" x14ac:dyDescent="0.35">
-      <c r="B40" s="11"/>
-      <c r="C40" s="11"/>
-      <c r="D40" s="11"/>
-      <c r="E40" s="11"/>
-      <c r="F40" s="11"/>
-      <c r="G40" s="11"/>
-      <c r="H40" s="11"/>
+      <c r="B40" s="9"/>
+      <c r="C40" s="9"/>
+      <c r="D40" s="9"/>
+      <c r="E40" s="9"/>
+      <c r="F40" s="9"/>
+      <c r="G40" s="9"/>
+      <c r="H40" s="9"/>
     </row>
     <row r="41" spans="1:8" ht="36" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>185</v>
       </c>
-      <c r="B41" s="9" t="s">
+      <c r="B41" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="C41" s="11" t="s">
+      <c r="C41" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="D41" s="11"/>
-      <c r="E41" s="12" t="s">
+      <c r="D41" s="9"/>
+      <c r="E41" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="F41" s="11"/>
-      <c r="G41" s="11" t="s">
+      <c r="F41" s="9"/>
+      <c r="G41" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="H41" s="11" t="s">
+      <c r="H41" s="9" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="42" spans="1:8" ht="18" x14ac:dyDescent="0.35">
-      <c r="A42" s="8"/>
-      <c r="B42" s="11"/>
-      <c r="C42" s="11"/>
-      <c r="D42" s="11"/>
-      <c r="E42" s="11"/>
-      <c r="F42" s="11"/>
-      <c r="G42" s="11"/>
-      <c r="H42" s="11"/>
+      <c r="B42" s="9"/>
+      <c r="C42" s="9"/>
+      <c r="D42" s="9"/>
+      <c r="E42" s="9"/>
+      <c r="F42" s="9"/>
+      <c r="G42" s="9"/>
+      <c r="H42" s="9"/>
     </row>
     <row r="43" spans="1:8" ht="108" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>186</v>
       </c>
-      <c r="B43" s="9" t="s">
+      <c r="B43" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="C43" s="11" t="s">
+      <c r="C43" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="D43" s="11"/>
-      <c r="E43" s="12" t="s">
+      <c r="D43" s="9"/>
+      <c r="E43" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="F43" s="11"/>
-      <c r="G43" s="11" t="s">
+      <c r="F43" s="9"/>
+      <c r="G43" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="H43" s="11" t="s">
+      <c r="H43" s="9" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="44" spans="1:8" ht="18" x14ac:dyDescent="0.35">
-      <c r="B44" s="11"/>
-      <c r="C44" s="11"/>
-      <c r="D44" s="11"/>
-      <c r="E44" s="11"/>
-      <c r="F44" s="11"/>
-      <c r="G44" s="11"/>
-      <c r="H44" s="11"/>
+      <c r="B44" s="9"/>
+      <c r="C44" s="9"/>
+      <c r="D44" s="9"/>
+      <c r="E44" s="9"/>
+      <c r="F44" s="9"/>
+      <c r="G44" s="9"/>
+      <c r="H44" s="9"/>
     </row>
     <row r="45" spans="1:8" ht="54" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>187</v>
       </c>
-      <c r="B45" s="9" t="s">
+      <c r="B45" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="C45" s="11" t="s">
+      <c r="C45" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="D45" s="11"/>
-      <c r="E45" s="12" t="s">
+      <c r="D45" s="9"/>
+      <c r="E45" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="F45" s="11"/>
-      <c r="G45" s="11" t="s">
+      <c r="F45" s="9"/>
+      <c r="G45" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="H45" s="11" t="s">
+      <c r="H45" s="9" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="46" spans="1:8" ht="18" x14ac:dyDescent="0.35">
-      <c r="B46" s="11"/>
-      <c r="C46" s="11"/>
-      <c r="D46" s="11"/>
-      <c r="E46" s="11"/>
-      <c r="F46" s="11"/>
-      <c r="G46" s="11"/>
-      <c r="H46" s="11"/>
+      <c r="B46" s="9"/>
+      <c r="C46" s="9"/>
+      <c r="D46" s="9"/>
+      <c r="E46" s="9"/>
+      <c r="F46" s="9"/>
+      <c r="G46" s="9"/>
+      <c r="H46" s="9"/>
     </row>
     <row r="47" spans="1:8" ht="126" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>188</v>
       </c>
-      <c r="B47" s="9" t="s">
+      <c r="B47" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="C47" s="11" t="s">
+      <c r="C47" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="D47" s="11"/>
-      <c r="E47" s="12" t="s">
+      <c r="D47" s="9"/>
+      <c r="E47" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="F47" s="11"/>
-      <c r="G47" s="12" t="s">
+      <c r="F47" s="9"/>
+      <c r="G47" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="H47" s="11" t="s">
+      <c r="H47" s="9" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="48" spans="1:8" ht="18" x14ac:dyDescent="0.35">
-      <c r="B48" s="9"/>
-      <c r="C48" s="11"/>
-      <c r="D48" s="11"/>
-      <c r="E48" s="12"/>
-      <c r="F48" s="11"/>
-      <c r="G48" s="12"/>
-      <c r="H48" s="12"/>
+      <c r="B48" s="7"/>
+      <c r="C48" s="9"/>
+      <c r="D48" s="9"/>
+      <c r="E48" s="10"/>
+      <c r="F48" s="9"/>
+      <c r="G48" s="10"/>
+      <c r="H48" s="10"/>
     </row>
     <row r="49" spans="1:8" ht="36" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>189</v>
       </c>
-      <c r="B49" s="9" t="s">
+      <c r="B49" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="C49" s="11" t="s">
+      <c r="C49" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="D49" s="11"/>
-      <c r="E49" s="12" t="s">
+      <c r="D49" s="9"/>
+      <c r="E49" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="F49" s="11"/>
-      <c r="G49" s="12" t="s">
+      <c r="F49" s="9"/>
+      <c r="G49" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="H49" s="12" t="s">
+      <c r="H49" s="10" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="50" spans="1:8" ht="18" x14ac:dyDescent="0.35">
-      <c r="B50" s="9"/>
-      <c r="C50" s="11"/>
-      <c r="D50" s="11"/>
-      <c r="E50" s="12"/>
-      <c r="F50" s="11"/>
-      <c r="G50" s="12"/>
-      <c r="H50" s="12"/>
+      <c r="B50" s="7"/>
+      <c r="C50" s="9"/>
+      <c r="D50" s="9"/>
+      <c r="E50" s="10"/>
+      <c r="F50" s="9"/>
+      <c r="G50" s="10"/>
+      <c r="H50" s="10"/>
     </row>
     <row r="51" spans="1:8" ht="72" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>183</v>
       </c>
-      <c r="B51" s="9" t="s">
+      <c r="B51" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="C51" s="11" t="s">
+      <c r="C51" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="D51" s="11"/>
-      <c r="E51" s="12" t="s">
+      <c r="D51" s="9"/>
+      <c r="E51" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="F51" s="11"/>
-      <c r="G51" s="12" t="s">
+      <c r="F51" s="9"/>
+      <c r="G51" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="H51" s="12" t="s">
+      <c r="H51" s="10" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="52" spans="1:8" ht="18" x14ac:dyDescent="0.35">
-      <c r="B52" s="9"/>
-      <c r="C52" s="11"/>
-      <c r="D52" s="11"/>
-      <c r="E52" s="12"/>
-      <c r="F52" s="11"/>
-      <c r="G52" s="12"/>
-      <c r="H52" s="12"/>
-    </row>
-    <row r="53" spans="1:8" s="8" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+      <c r="B52" s="7"/>
+      <c r="C52" s="9"/>
+      <c r="D52" s="9"/>
+      <c r="E52" s="10"/>
+      <c r="F52" s="9"/>
+      <c r="G52" s="10"/>
+      <c r="H52" s="10"/>
+    </row>
+    <row r="53" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A53" s="5"/>
-      <c r="B53" s="10"/>
-      <c r="C53" s="13"/>
-      <c r="D53" s="13"/>
-      <c r="E53" s="13"/>
-      <c r="F53" s="13"/>
-      <c r="G53" s="13"/>
-      <c r="H53" s="13"/>
+      <c r="B53" s="8"/>
+      <c r="C53" s="11"/>
+      <c r="D53" s="11"/>
+      <c r="E53" s="11"/>
+      <c r="F53" s="11"/>
+      <c r="G53" s="11"/>
+      <c r="H53" s="11"/>
     </row>
     <row r="54" spans="1:8" ht="36" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>190</v>
       </c>
-      <c r="B54" s="9" t="s">
+      <c r="B54" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="C54" s="11" t="s">
+      <c r="C54" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="D54" s="11"/>
-      <c r="E54" s="12" t="s">
+      <c r="D54" s="9"/>
+      <c r="E54" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="F54" s="11"/>
-      <c r="G54" s="11" t="s">
+      <c r="F54" s="9"/>
+      <c r="G54" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="H54" s="12" t="s">
+      <c r="H54" s="10" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="55" spans="1:8" ht="18" x14ac:dyDescent="0.35">
-      <c r="B55" s="11"/>
-      <c r="C55" s="11"/>
-      <c r="D55" s="11"/>
-      <c r="E55" s="11"/>
-      <c r="F55" s="11"/>
-      <c r="G55" s="11"/>
-      <c r="H55" s="11"/>
+      <c r="B55" s="9"/>
+      <c r="C55" s="9"/>
+      <c r="D55" s="9"/>
+      <c r="E55" s="9"/>
+      <c r="F55" s="9"/>
+      <c r="G55" s="9"/>
+      <c r="H55" s="9"/>
     </row>
     <row r="56" spans="1:8" ht="54" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>191</v>
       </c>
-      <c r="B56" s="9" t="s">
+      <c r="B56" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="C56" s="11" t="s">
+      <c r="C56" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="D56" s="11"/>
-      <c r="E56" s="12" t="s">
+      <c r="D56" s="9"/>
+      <c r="E56" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="F56" s="11"/>
-      <c r="G56" s="11" t="s">
+      <c r="F56" s="9"/>
+      <c r="G56" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="H56" s="12" t="s">
+      <c r="H56" s="10" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="57" spans="1:8" ht="18" x14ac:dyDescent="0.35">
-      <c r="A57" s="8"/>
-      <c r="B57" s="11"/>
-      <c r="C57" s="11"/>
-      <c r="D57" s="11"/>
-      <c r="E57" s="11"/>
-      <c r="F57" s="11"/>
-      <c r="G57" s="11"/>
-      <c r="H57" s="11"/>
+      <c r="B57" s="9"/>
+      <c r="C57" s="9"/>
+      <c r="D57" s="9"/>
+      <c r="E57" s="9"/>
+      <c r="F57" s="9"/>
+      <c r="G57" s="9"/>
+      <c r="H57" s="9"/>
     </row>
     <row r="58" spans="1:8" ht="36" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>192</v>
       </c>
-      <c r="B58" s="9" t="s">
+      <c r="B58" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="C58" s="11" t="s">
+      <c r="C58" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="D58" s="11"/>
-      <c r="E58" s="12" t="s">
+      <c r="D58" s="9"/>
+      <c r="E58" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="F58" s="11"/>
-      <c r="G58" s="11" t="s">
+      <c r="F58" s="9"/>
+      <c r="G58" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="H58" s="11" t="s">
+      <c r="H58" s="9" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="59" spans="1:8" ht="18" x14ac:dyDescent="0.35">
-      <c r="B59" s="9"/>
-      <c r="C59" s="11"/>
-      <c r="D59" s="11"/>
-      <c r="E59" s="12"/>
-      <c r="F59" s="11"/>
-      <c r="G59" s="11"/>
-      <c r="H59" s="11"/>
-    </row>
-    <row r="60" spans="1:8" s="8" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+      <c r="B59" s="7"/>
+      <c r="C59" s="9"/>
+      <c r="D59" s="9"/>
+      <c r="E59" s="10"/>
+      <c r="F59" s="9"/>
+      <c r="G59" s="9"/>
+      <c r="H59" s="9"/>
+    </row>
+    <row r="60" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A60" s="5"/>
-      <c r="B60" s="13"/>
-      <c r="C60" s="13"/>
-      <c r="D60" s="13"/>
-      <c r="E60" s="14"/>
-      <c r="F60" s="13"/>
-      <c r="G60" s="13"/>
-      <c r="H60" s="13"/>
+      <c r="B60" s="11"/>
+      <c r="C60" s="11"/>
+      <c r="D60" s="11"/>
+      <c r="E60" s="12"/>
+      <c r="F60" s="11"/>
+      <c r="G60" s="11"/>
+      <c r="H60" s="11"/>
     </row>
     <row r="61" spans="1:8" ht="54" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>194</v>
       </c>
-      <c r="B61" s="9" t="s">
+      <c r="B61" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="C61" s="11" t="s">
+      <c r="C61" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="D61" s="11"/>
-      <c r="E61" s="12" t="s">
+      <c r="D61" s="9"/>
+      <c r="E61" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="F61" s="11"/>
-      <c r="G61" s="11" t="s">
+      <c r="F61" s="9"/>
+      <c r="G61" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="H61" s="12" t="s">
+      <c r="H61" s="10" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="62" spans="1:8" ht="18" x14ac:dyDescent="0.35">
-      <c r="B62" s="11"/>
-      <c r="C62" s="11"/>
-      <c r="D62" s="11"/>
-      <c r="E62" s="11"/>
-      <c r="F62" s="11"/>
-      <c r="G62" s="11"/>
-      <c r="H62" s="11"/>
+      <c r="B62" s="9"/>
+      <c r="C62" s="9"/>
+      <c r="D62" s="9"/>
+      <c r="E62" s="9"/>
+      <c r="F62" s="9"/>
+      <c r="G62" s="9"/>
+      <c r="H62" s="9"/>
     </row>
     <row r="63" spans="1:8" ht="54" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>195</v>
       </c>
-      <c r="B63" s="9" t="s">
+      <c r="B63" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="C63" s="11" t="s">
+      <c r="C63" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="D63" s="11"/>
-      <c r="E63" s="12" t="s">
+      <c r="D63" s="9"/>
+      <c r="E63" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="F63" s="12"/>
-      <c r="G63" s="11" t="s">
+      <c r="F63" s="10"/>
+      <c r="G63" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="H63" s="11" t="s">
+      <c r="H63" s="9" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="64" spans="1:8" ht="18" x14ac:dyDescent="0.35">
-      <c r="A64" s="8"/>
-      <c r="B64" s="11"/>
-      <c r="C64" s="11"/>
-      <c r="D64" s="11"/>
-      <c r="E64" s="11"/>
-      <c r="F64" s="11"/>
-      <c r="G64" s="11"/>
-      <c r="H64" s="11"/>
+      <c r="B64" s="9"/>
+      <c r="C64" s="9"/>
+      <c r="D64" s="9"/>
+      <c r="E64" s="9"/>
+      <c r="F64" s="9"/>
+      <c r="G64" s="9"/>
+      <c r="H64" s="9"/>
     </row>
     <row r="65" spans="1:8" ht="54" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>193</v>
       </c>
-      <c r="B65" s="9" t="s">
+      <c r="B65" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="C65" s="11" t="s">
+      <c r="C65" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="D65" s="11"/>
-      <c r="E65" s="12" t="s">
+      <c r="D65" s="9"/>
+      <c r="E65" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="F65" s="11"/>
-      <c r="G65" s="11" t="s">
+      <c r="F65" s="9"/>
+      <c r="G65" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="H65" s="11" t="s">
+      <c r="H65" s="9" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="66" spans="1:8" ht="18" x14ac:dyDescent="0.35">
-      <c r="B66" s="11"/>
-      <c r="C66" s="11"/>
-      <c r="D66" s="11"/>
-      <c r="E66" s="11"/>
-      <c r="F66" s="11"/>
-      <c r="G66" s="11"/>
-      <c r="H66" s="11"/>
-    </row>
-    <row r="67" spans="1:8" s="8" customFormat="1" ht="18" x14ac:dyDescent="0.35">
-      <c r="B67" s="15"/>
-      <c r="C67" s="15"/>
-      <c r="D67" s="15"/>
-      <c r="E67" s="15"/>
-      <c r="F67" s="15"/>
-      <c r="G67" s="15"/>
-      <c r="H67" s="15"/>
+      <c r="B66" s="9"/>
+      <c r="C66" s="9"/>
+      <c r="D66" s="9"/>
+      <c r="E66" s="9"/>
+      <c r="F66" s="9"/>
+      <c r="G66" s="9"/>
+      <c r="H66" s="9"/>
+    </row>
+    <row r="67" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+      <c r="B67" s="9"/>
+      <c r="C67" s="9"/>
+      <c r="D67" s="9"/>
+      <c r="E67" s="9"/>
+      <c r="F67" s="9"/>
+      <c r="G67" s="9"/>
+      <c r="H67" s="9"/>
     </row>
     <row r="68" spans="1:8" ht="54" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>196</v>
       </c>
-      <c r="B68" s="9" t="s">
+      <c r="B68" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="C68" s="11" t="s">
+      <c r="C68" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="D68" s="11"/>
-      <c r="E68" s="12" t="s">
+      <c r="D68" s="9"/>
+      <c r="E68" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="F68" s="11"/>
-      <c r="G68" s="11" t="s">
+      <c r="F68" s="9"/>
+      <c r="G68" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="H68" s="11" t="s">
+      <c r="H68" s="9" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="69" spans="1:8" ht="18" x14ac:dyDescent="0.35">
-      <c r="B69" s="11"/>
-      <c r="C69" s="11"/>
-      <c r="D69" s="11"/>
-      <c r="E69" s="11"/>
-      <c r="F69" s="11"/>
-      <c r="G69" s="11"/>
-      <c r="H69" s="11"/>
+      <c r="B69" s="9"/>
+      <c r="C69" s="9"/>
+      <c r="D69" s="9"/>
+      <c r="E69" s="9"/>
+      <c r="F69" s="9"/>
+      <c r="G69" s="9"/>
+      <c r="H69" s="9"/>
     </row>
     <row r="70" spans="1:8" ht="18" x14ac:dyDescent="0.35">
-      <c r="B70" s="11"/>
-      <c r="C70" s="11"/>
-      <c r="D70" s="11"/>
-      <c r="E70" s="11"/>
-      <c r="F70" s="11"/>
-      <c r="G70" s="11"/>
-      <c r="H70" s="11"/>
+      <c r="B70" s="9"/>
+      <c r="C70" s="9"/>
+      <c r="D70" s="9"/>
+      <c r="E70" s="9"/>
+      <c r="F70" s="9"/>
+      <c r="G70" s="9"/>
+      <c r="H70" s="9"/>
     </row>
     <row r="71" spans="1:8" ht="36" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>197</v>
       </c>
-      <c r="B71" s="9" t="s">
+      <c r="B71" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="C71" s="11" t="s">
+      <c r="C71" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="D71" s="11"/>
-      <c r="E71" s="12" t="s">
+      <c r="D71" s="9"/>
+      <c r="E71" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="F71" s="11"/>
-      <c r="G71" s="11" t="s">
+      <c r="F71" s="9"/>
+      <c r="G71" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="H71" s="11" t="s">
+      <c r="H71" s="9" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="72" spans="1:8" ht="18" x14ac:dyDescent="0.35">
-      <c r="B72" s="11"/>
-      <c r="C72" s="11"/>
-      <c r="D72" s="11"/>
-      <c r="E72" s="11"/>
-      <c r="F72" s="11"/>
-      <c r="G72" s="11"/>
-      <c r="H72" s="11"/>
+      <c r="B72" s="9"/>
+      <c r="C72" s="9"/>
+      <c r="D72" s="9"/>
+      <c r="E72" s="9"/>
+      <c r="F72" s="9"/>
+      <c r="G72" s="9"/>
+      <c r="H72" s="9"/>
     </row>
     <row r="73" spans="1:8" ht="18" x14ac:dyDescent="0.35">
-      <c r="B73" s="11"/>
-      <c r="C73" s="11"/>
-      <c r="D73" s="11"/>
-      <c r="E73" s="11"/>
-      <c r="F73" s="11"/>
-      <c r="G73" s="11"/>
-      <c r="H73" s="11"/>
+      <c r="B73" s="9"/>
+      <c r="C73" s="9"/>
+      <c r="D73" s="9"/>
+      <c r="E73" s="9"/>
+      <c r="F73" s="9"/>
+      <c r="G73" s="9"/>
+      <c r="H73" s="9"/>
     </row>
     <row r="74" spans="1:8" ht="54" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
         <v>198</v>
       </c>
-      <c r="B74" s="9" t="s">
+      <c r="B74" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="C74" s="11" t="s">
+      <c r="C74" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="D74" s="11"/>
-      <c r="E74" s="12" t="s">
+      <c r="D74" s="9"/>
+      <c r="E74" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="F74" s="11"/>
-      <c r="G74" s="11" t="s">
+      <c r="F74" s="9"/>
+      <c r="G74" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="H74" s="11" t="s">
+      <c r="H74" s="9" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="75" spans="1:8" ht="18" x14ac:dyDescent="0.35">
-      <c r="B75" s="11"/>
-      <c r="C75" s="11"/>
-      <c r="D75" s="11"/>
-      <c r="E75" s="11"/>
-      <c r="F75" s="11"/>
-      <c r="G75" s="11"/>
-      <c r="H75" s="11"/>
+      <c r="B75" s="9"/>
+      <c r="C75" s="9"/>
+      <c r="D75" s="9"/>
+      <c r="E75" s="9"/>
+      <c r="F75" s="9"/>
+      <c r="G75" s="9"/>
+      <c r="H75" s="9"/>
     </row>
     <row r="76" spans="1:8" ht="36" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
         <v>199</v>
       </c>
-      <c r="B76" s="9" t="s">
+      <c r="B76" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="C76" s="11" t="s">
+      <c r="C76" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="D76" s="11"/>
-      <c r="E76" s="12" t="s">
+      <c r="D76" s="9"/>
+      <c r="E76" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="F76" s="11"/>
-      <c r="G76" s="11" t="s">
+      <c r="F76" s="9"/>
+      <c r="G76" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="H76" s="11" t="s">
+      <c r="H76" s="9" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="77" spans="1:8" ht="18" x14ac:dyDescent="0.35">
-      <c r="B77" s="11"/>
-      <c r="C77" s="11"/>
-      <c r="D77" s="11"/>
-      <c r="E77" s="11"/>
-      <c r="F77" s="11"/>
-      <c r="G77" s="11"/>
-      <c r="H77" s="11"/>
+      <c r="B77" s="9"/>
+      <c r="C77" s="9"/>
+      <c r="D77" s="9"/>
+      <c r="E77" s="9"/>
+      <c r="F77" s="9"/>
+      <c r="G77" s="9"/>
+      <c r="H77" s="9"/>
     </row>
     <row r="78" spans="1:8" ht="36" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
         <v>200</v>
       </c>
-      <c r="B78" s="9" t="s">
+      <c r="B78" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="C78" s="11" t="s">
+      <c r="C78" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="D78" s="11"/>
-      <c r="E78" s="12" t="s">
+      <c r="D78" s="9"/>
+      <c r="E78" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="F78" s="11"/>
-      <c r="G78" s="11" t="s">
+      <c r="F78" s="9"/>
+      <c r="G78" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="H78" s="11" t="s">
+      <c r="H78" s="9" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="79" spans="1:8" ht="18" x14ac:dyDescent="0.35">
-      <c r="B79" s="11"/>
-      <c r="C79" s="11"/>
-      <c r="D79" s="11"/>
-      <c r="E79" s="11"/>
-      <c r="F79" s="11"/>
-      <c r="G79" s="11"/>
-      <c r="H79" s="11"/>
+      <c r="B79" s="9"/>
+      <c r="C79" s="9"/>
+      <c r="D79" s="9"/>
+      <c r="E79" s="9"/>
+      <c r="F79" s="9"/>
+      <c r="G79" s="9"/>
+      <c r="H79" s="9"/>
     </row>
     <row r="80" spans="1:8" ht="18" x14ac:dyDescent="0.35">
-      <c r="B80" s="11"/>
-      <c r="C80" s="11"/>
-      <c r="D80" s="11"/>
-      <c r="E80" s="11"/>
-      <c r="F80" s="11"/>
-      <c r="G80" s="11"/>
-      <c r="H80" s="11"/>
-    </row>
-    <row r="81" spans="1:8" s="8" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+      <c r="B80" s="9"/>
+      <c r="C80" s="9"/>
+      <c r="D80" s="9"/>
+      <c r="E80" s="9"/>
+      <c r="F80" s="9"/>
+      <c r="G80" s="9"/>
+      <c r="H80" s="9"/>
+    </row>
+    <row r="81" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A81" s="5"/>
-      <c r="B81" s="13"/>
-      <c r="C81" s="13"/>
-      <c r="D81" s="13"/>
-      <c r="E81" s="13"/>
-      <c r="F81" s="13"/>
-      <c r="G81" s="13"/>
-      <c r="H81" s="13"/>
+      <c r="B81" s="11"/>
+      <c r="C81" s="11"/>
+      <c r="D81" s="11"/>
+      <c r="E81" s="11"/>
+      <c r="F81" s="11"/>
+      <c r="G81" s="11"/>
+      <c r="H81" s="11"/>
     </row>
     <row r="82" spans="1:8" ht="18" x14ac:dyDescent="0.35">
-      <c r="B82" s="11"/>
-      <c r="C82" s="11"/>
-      <c r="D82" s="11"/>
-      <c r="E82" s="11"/>
-      <c r="F82" s="11"/>
-      <c r="G82" s="11"/>
-      <c r="H82" s="11"/>
+      <c r="B82" s="9"/>
+      <c r="C82" s="9"/>
+      <c r="D82" s="9"/>
+      <c r="E82" s="9"/>
+      <c r="F82" s="9"/>
+      <c r="G82" s="9"/>
+      <c r="H82" s="9"/>
     </row>
     <row r="83" spans="1:8" ht="54" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
         <v>201</v>
       </c>
-      <c r="B83" s="9" t="s">
+      <c r="B83" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="C83" s="11" t="s">
+      <c r="C83" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="D83" s="11"/>
-      <c r="E83" s="12" t="s">
+      <c r="D83" s="9"/>
+      <c r="E83" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="F83" s="11"/>
-      <c r="G83" s="11" t="s">
+      <c r="F83" s="9"/>
+      <c r="G83" s="9" t="s">
         <v>90</v>
       </c>
-      <c r="H83" s="11" t="s">
+      <c r="H83" s="9" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="84" spans="1:8" ht="18" x14ac:dyDescent="0.35">
-      <c r="B84" s="11"/>
-      <c r="C84" s="11"/>
-      <c r="D84" s="11"/>
-      <c r="E84" s="11"/>
-      <c r="F84" s="11"/>
-      <c r="G84" s="11"/>
-      <c r="H84" s="11"/>
+      <c r="B84" s="9"/>
+      <c r="C84" s="9"/>
+      <c r="D84" s="9"/>
+      <c r="E84" s="9"/>
+      <c r="F84" s="9"/>
+      <c r="G84" s="9"/>
+      <c r="H84" s="9"/>
     </row>
     <row r="85" spans="1:8" ht="72" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
         <v>202</v>
       </c>
-      <c r="B85" s="9" t="s">
+      <c r="B85" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="C85" s="11" t="s">
+      <c r="C85" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="D85" s="11"/>
-      <c r="E85" s="12" t="s">
+      <c r="D85" s="9"/>
+      <c r="E85" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="F85" s="11"/>
-      <c r="G85" s="12" t="s">
+      <c r="F85" s="9"/>
+      <c r="G85" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="H85" s="12" t="s">
+      <c r="H85" s="10" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="86" spans="1:8" ht="18" x14ac:dyDescent="0.35">
-      <c r="B86" s="11"/>
-      <c r="C86" s="11"/>
-      <c r="D86" s="11"/>
-      <c r="E86" s="11"/>
-      <c r="F86" s="11"/>
-      <c r="G86" s="11"/>
-      <c r="H86" s="11"/>
+      <c r="B86" s="9"/>
+      <c r="C86" s="9"/>
+      <c r="D86" s="9"/>
+      <c r="E86" s="9"/>
+      <c r="F86" s="9"/>
+      <c r="G86" s="9"/>
+      <c r="H86" s="9"/>
     </row>
     <row r="87" spans="1:8" ht="18" x14ac:dyDescent="0.35">
-      <c r="B87" s="11"/>
-      <c r="C87" s="11"/>
-      <c r="D87" s="11"/>
-      <c r="E87" s="11"/>
-      <c r="F87" s="11"/>
-      <c r="G87" s="11"/>
-      <c r="H87" s="11"/>
+      <c r="B87" s="9"/>
+      <c r="C87" s="9"/>
+      <c r="D87" s="9"/>
+      <c r="E87" s="9"/>
+      <c r="F87" s="9"/>
+      <c r="G87" s="9"/>
+      <c r="H87" s="9"/>
     </row>
     <row r="88" spans="1:8" ht="90" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
         <v>203</v>
       </c>
-      <c r="B88" s="9" t="s">
+      <c r="B88" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="C88" s="11" t="s">
+      <c r="C88" s="9" t="s">
         <v>94</v>
       </c>
-      <c r="D88" s="11"/>
-      <c r="E88" s="12" t="s">
+      <c r="D88" s="9"/>
+      <c r="E88" s="10" t="s">
         <v>95</v>
       </c>
-      <c r="F88" s="11"/>
-      <c r="G88" s="11" t="s">
+      <c r="F88" s="9"/>
+      <c r="G88" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="H88" s="11" t="s">
+      <c r="H88" s="9" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="89" spans="1:8" ht="18" x14ac:dyDescent="0.35">
-      <c r="B89" s="11"/>
-      <c r="C89" s="11"/>
-      <c r="D89" s="11"/>
-      <c r="E89" s="11"/>
-      <c r="F89" s="11"/>
-      <c r="G89" s="11"/>
-      <c r="H89" s="11"/>
+      <c r="B89" s="9"/>
+      <c r="C89" s="9"/>
+      <c r="D89" s="9"/>
+      <c r="E89" s="9"/>
+      <c r="F89" s="9"/>
+      <c r="G89" s="9"/>
+      <c r="H89" s="9"/>
     </row>
     <row r="90" spans="1:8" ht="18" x14ac:dyDescent="0.35">
-      <c r="B90" s="11"/>
-      <c r="C90" s="11"/>
-      <c r="D90" s="11"/>
-      <c r="E90" s="11"/>
-      <c r="F90" s="11"/>
-      <c r="G90" s="11"/>
-      <c r="H90" s="11"/>
+      <c r="B90" s="9"/>
+      <c r="C90" s="9"/>
+      <c r="D90" s="9"/>
+      <c r="E90" s="9"/>
+      <c r="F90" s="9"/>
+      <c r="G90" s="9"/>
+      <c r="H90" s="9"/>
     </row>
     <row r="91" spans="1:8" ht="18" x14ac:dyDescent="0.35">
-      <c r="B91" s="11"/>
-      <c r="C91" s="11"/>
-      <c r="D91" s="11"/>
-      <c r="E91" s="11"/>
-      <c r="F91" s="11"/>
-      <c r="G91" s="11"/>
-      <c r="H91" s="11"/>
+      <c r="B91" s="9"/>
+      <c r="C91" s="9"/>
+      <c r="D91" s="9"/>
+      <c r="E91" s="9"/>
+      <c r="F91" s="9"/>
+      <c r="G91" s="9"/>
+      <c r="H91" s="9"/>
     </row>
     <row r="92" spans="1:8" ht="126" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
         <v>204</v>
       </c>
-      <c r="B92" s="9" t="s">
+      <c r="B92" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="C92" s="11" t="s">
+      <c r="C92" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="D92" s="11"/>
-      <c r="E92" s="12" t="s">
+      <c r="D92" s="9"/>
+      <c r="E92" s="10" t="s">
         <v>105</v>
       </c>
-      <c r="F92" s="11"/>
-      <c r="G92" s="12" t="s">
+      <c r="F92" s="9"/>
+      <c r="G92" s="10" t="s">
         <v>98</v>
       </c>
-      <c r="H92" s="11" t="s">
+      <c r="H92" s="9" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="93" spans="1:8" ht="18" x14ac:dyDescent="0.35">
-      <c r="B93" s="11"/>
-      <c r="C93" s="11"/>
-      <c r="D93" s="11"/>
-      <c r="E93" s="11"/>
-      <c r="F93" s="11"/>
-      <c r="G93" s="11"/>
-      <c r="H93" s="11"/>
+      <c r="B93" s="9"/>
+      <c r="C93" s="9"/>
+      <c r="D93" s="9"/>
+      <c r="E93" s="9"/>
+      <c r="F93" s="9"/>
+      <c r="G93" s="9"/>
+      <c r="H93" s="9"/>
     </row>
     <row r="94" spans="1:8" ht="126" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
         <v>205</v>
       </c>
-      <c r="B94" s="9" t="s">
+      <c r="B94" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="C94" s="11" t="s">
+      <c r="C94" s="9" t="s">
         <v>99</v>
       </c>
-      <c r="D94" s="11"/>
-      <c r="E94" s="12" t="s">
+      <c r="D94" s="9"/>
+      <c r="E94" s="10" t="s">
         <v>104</v>
       </c>
-      <c r="F94" s="11"/>
-      <c r="G94" s="12" t="s">
+      <c r="F94" s="9"/>
+      <c r="G94" s="10" t="s">
         <v>100</v>
       </c>
-      <c r="H94" s="11" t="s">
+      <c r="H94" s="9" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="95" spans="1:8" ht="18" x14ac:dyDescent="0.35">
-      <c r="B95" s="11"/>
-      <c r="C95" s="11"/>
-      <c r="D95" s="11"/>
-      <c r="E95" s="11"/>
-      <c r="F95" s="11"/>
-      <c r="G95" s="11"/>
-      <c r="H95" s="11"/>
+      <c r="B95" s="9"/>
+      <c r="C95" s="9"/>
+      <c r="D95" s="9"/>
+      <c r="E95" s="9"/>
+      <c r="F95" s="9"/>
+      <c r="G95" s="9"/>
+      <c r="H95" s="9"/>
     </row>
     <row r="96" spans="1:8" ht="18" x14ac:dyDescent="0.35">
-      <c r="B96" s="11"/>
-      <c r="C96" s="11"/>
-      <c r="D96" s="11"/>
-      <c r="E96" s="11"/>
-      <c r="F96" s="11"/>
-      <c r="G96" s="11"/>
-      <c r="H96" s="11"/>
+      <c r="B96" s="9"/>
+      <c r="C96" s="9"/>
+      <c r="D96" s="9"/>
+      <c r="E96" s="9"/>
+      <c r="F96" s="9"/>
+      <c r="G96" s="9"/>
+      <c r="H96" s="9"/>
     </row>
     <row r="97" spans="1:8" ht="18" x14ac:dyDescent="0.35">
-      <c r="B97" s="11"/>
-      <c r="C97" s="11"/>
-      <c r="D97" s="11"/>
-      <c r="E97" s="11"/>
-      <c r="F97" s="11"/>
-      <c r="G97" s="11"/>
-      <c r="H97" s="11"/>
+      <c r="B97" s="9"/>
+      <c r="C97" s="9"/>
+      <c r="D97" s="9"/>
+      <c r="E97" s="9"/>
+      <c r="F97" s="9"/>
+      <c r="G97" s="9"/>
+      <c r="H97" s="9"/>
     </row>
     <row r="98" spans="1:8" ht="54" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
         <v>206</v>
       </c>
-      <c r="B98" s="9" t="s">
+      <c r="B98" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="C98" s="11" t="s">
+      <c r="C98" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="D98" s="11"/>
-      <c r="E98" s="12" t="s">
+      <c r="D98" s="9"/>
+      <c r="E98" s="10" t="s">
         <v>103</v>
       </c>
-      <c r="F98" s="11"/>
-      <c r="G98" s="11" t="s">
+      <c r="F98" s="9"/>
+      <c r="G98" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="H98" s="11" t="s">
+      <c r="H98" s="9" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="99" spans="1:8" ht="18" x14ac:dyDescent="0.35">
-      <c r="B99" s="11"/>
-      <c r="C99" s="11"/>
-      <c r="D99" s="11"/>
-      <c r="E99" s="11"/>
-      <c r="F99" s="11"/>
-      <c r="G99" s="11"/>
-      <c r="H99" s="11"/>
+      <c r="B99" s="9"/>
+      <c r="C99" s="9"/>
+      <c r="D99" s="9"/>
+      <c r="E99" s="9"/>
+      <c r="F99" s="9"/>
+      <c r="G99" s="9"/>
+      <c r="H99" s="9"/>
     </row>
     <row r="100" spans="1:8" ht="18" x14ac:dyDescent="0.35">
-      <c r="B100" s="11"/>
-      <c r="C100" s="11"/>
-      <c r="D100" s="11"/>
-      <c r="E100" s="11"/>
-      <c r="F100" s="11"/>
-      <c r="G100" s="11"/>
-      <c r="H100" s="11"/>
+      <c r="B100" s="9"/>
+      <c r="C100" s="9"/>
+      <c r="D100" s="9"/>
+      <c r="E100" s="9"/>
+      <c r="F100" s="9"/>
+      <c r="G100" s="9"/>
+      <c r="H100" s="9"/>
     </row>
     <row r="101" spans="1:8" ht="72" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
         <v>207</v>
       </c>
-      <c r="B101" s="9" t="s">
+      <c r="B101" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="C101" s="11" t="s">
+      <c r="C101" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="D101" s="11"/>
-      <c r="E101" s="12" t="s">
+      <c r="D101" s="9"/>
+      <c r="E101" s="10" t="s">
         <v>108</v>
       </c>
-      <c r="F101" s="11"/>
-      <c r="G101" s="11" t="s">
+      <c r="F101" s="9"/>
+      <c r="G101" s="9" t="s">
         <v>107</v>
       </c>
-      <c r="H101" s="11" t="s">
+      <c r="H101" s="9" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="102" spans="1:8" ht="18" x14ac:dyDescent="0.35">
-      <c r="B102" s="11"/>
-      <c r="C102" s="11"/>
-      <c r="D102" s="11"/>
-      <c r="E102" s="11"/>
-      <c r="F102" s="11"/>
-      <c r="G102" s="11"/>
-      <c r="H102" s="11"/>
+      <c r="B102" s="9"/>
+      <c r="C102" s="9"/>
+      <c r="D102" s="9"/>
+      <c r="E102" s="9"/>
+      <c r="F102" s="9"/>
+      <c r="G102" s="9"/>
+      <c r="H102" s="9"/>
     </row>
     <row r="103" spans="1:8" ht="18" x14ac:dyDescent="0.35">
-      <c r="B103" s="11"/>
-      <c r="C103" s="11"/>
-      <c r="D103" s="11"/>
-      <c r="E103" s="11"/>
-      <c r="F103" s="11"/>
-      <c r="G103" s="11"/>
-      <c r="H103" s="11"/>
+      <c r="B103" s="9"/>
+      <c r="C103" s="9"/>
+      <c r="D103" s="9"/>
+      <c r="E103" s="9"/>
+      <c r="F103" s="9"/>
+      <c r="G103" s="9"/>
+      <c r="H103" s="9"/>
     </row>
     <row r="104" spans="1:8" ht="18" x14ac:dyDescent="0.35">
-      <c r="B104" s="11"/>
-      <c r="C104" s="11"/>
-      <c r="D104" s="11"/>
-      <c r="E104" s="11"/>
-      <c r="F104" s="11"/>
-      <c r="G104" s="11"/>
-      <c r="H104" s="11"/>
+      <c r="B104" s="9"/>
+      <c r="C104" s="9"/>
+      <c r="D104" s="9"/>
+      <c r="E104" s="9"/>
+      <c r="F104" s="9"/>
+      <c r="G104" s="9"/>
+      <c r="H104" s="9"/>
     </row>
     <row r="105" spans="1:8" ht="18" x14ac:dyDescent="0.35">
-      <c r="B105" s="11"/>
-      <c r="C105" s="11"/>
-      <c r="D105" s="11"/>
-      <c r="E105" s="11"/>
-      <c r="F105" s="11"/>
-      <c r="G105" s="11"/>
-      <c r="H105" s="11"/>
+      <c r="B105" s="9"/>
+      <c r="C105" s="9"/>
+      <c r="D105" s="9"/>
+      <c r="E105" s="9"/>
+      <c r="F105" s="9"/>
+      <c r="G105" s="9"/>
+      <c r="H105" s="9"/>
     </row>
     <row r="106" spans="1:8" ht="36" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
         <v>208</v>
       </c>
-      <c r="B106" s="9" t="s">
+      <c r="B106" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="C106" s="11" t="s">
+      <c r="C106" s="9" t="s">
         <v>139</v>
       </c>
-      <c r="D106" s="11"/>
-      <c r="E106" s="12" t="s">
+      <c r="D106" s="9"/>
+      <c r="E106" s="10" t="s">
         <v>140</v>
       </c>
-      <c r="F106" s="11"/>
-      <c r="G106" s="11" t="s">
+      <c r="F106" s="9"/>
+      <c r="G106" s="9" t="s">
         <v>141</v>
       </c>
-      <c r="H106" s="11" t="s">
+      <c r="H106" s="9" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="107" spans="1:8" ht="18" x14ac:dyDescent="0.35">
-      <c r="B107" s="11"/>
-      <c r="C107" s="11"/>
-      <c r="D107" s="11"/>
-      <c r="E107" s="11"/>
-      <c r="F107" s="11"/>
-      <c r="G107" s="11"/>
-      <c r="H107" s="11"/>
+      <c r="B107" s="9"/>
+      <c r="C107" s="9"/>
+      <c r="D107" s="9"/>
+      <c r="E107" s="9"/>
+      <c r="F107" s="9"/>
+      <c r="G107" s="9"/>
+      <c r="H107" s="9"/>
     </row>
     <row r="108" spans="1:8" ht="18" x14ac:dyDescent="0.35">
-      <c r="B108" s="11"/>
-      <c r="C108" s="11"/>
-      <c r="D108" s="11"/>
-      <c r="E108" s="11"/>
-      <c r="F108" s="11"/>
-      <c r="G108" s="11"/>
-      <c r="H108" s="11"/>
+      <c r="B108" s="9"/>
+      <c r="C108" s="9"/>
+      <c r="D108" s="9"/>
+      <c r="E108" s="9"/>
+      <c r="F108" s="9"/>
+      <c r="G108" s="9"/>
+      <c r="H108" s="9"/>
     </row>
     <row r="109" spans="1:8" ht="54" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
         <v>209</v>
       </c>
-      <c r="B109" s="9" t="s">
+      <c r="B109" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="C109" s="11" t="s">
+      <c r="C109" s="9" t="s">
         <v>142</v>
       </c>
-      <c r="D109" s="11"/>
-      <c r="E109" s="12" t="s">
+      <c r="D109" s="9"/>
+      <c r="E109" s="10" t="s">
         <v>143</v>
       </c>
-      <c r="F109" s="11"/>
-      <c r="G109" s="11" t="s">
+      <c r="F109" s="9"/>
+      <c r="G109" s="9" t="s">
         <v>144</v>
       </c>
-      <c r="H109" s="11" t="s">
+      <c r="H109" s="9" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="110" spans="1:8" ht="18" x14ac:dyDescent="0.35">
-      <c r="B110" s="11"/>
-      <c r="C110" s="11"/>
-      <c r="D110" s="11"/>
-      <c r="E110" s="11"/>
-      <c r="F110" s="11"/>
-      <c r="G110" s="11"/>
-      <c r="H110" s="11"/>
-    </row>
-    <row r="111" spans="1:8" s="8" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+      <c r="B110" s="9"/>
+      <c r="C110" s="9"/>
+      <c r="D110" s="9"/>
+      <c r="E110" s="9"/>
+      <c r="F110" s="9"/>
+      <c r="G110" s="9"/>
+      <c r="H110" s="9"/>
+    </row>
+    <row r="111" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A111" s="5"/>
-      <c r="B111" s="13"/>
-      <c r="C111" s="13"/>
-      <c r="D111" s="13"/>
-      <c r="E111" s="13"/>
-      <c r="F111" s="13"/>
-      <c r="G111" s="13"/>
-      <c r="H111" s="13"/>
+      <c r="B111" s="11"/>
+      <c r="C111" s="11"/>
+      <c r="D111" s="11"/>
+      <c r="E111" s="11"/>
+      <c r="F111" s="11"/>
+      <c r="G111" s="11"/>
+      <c r="H111" s="11"/>
     </row>
     <row r="112" spans="1:8" ht="18" x14ac:dyDescent="0.35">
-      <c r="B112" s="11"/>
-      <c r="C112" s="11"/>
-      <c r="D112" s="11"/>
-      <c r="E112" s="11"/>
-      <c r="F112" s="11"/>
-      <c r="G112" s="11"/>
-      <c r="H112" s="11"/>
+      <c r="B112" s="9"/>
+      <c r="C112" s="9"/>
+      <c r="D112" s="9"/>
+      <c r="E112" s="9"/>
+      <c r="F112" s="9"/>
+      <c r="G112" s="9"/>
+      <c r="H112" s="9"/>
     </row>
     <row r="113" spans="1:8" ht="18" x14ac:dyDescent="0.35">
-      <c r="B113" s="11"/>
-      <c r="C113" s="11"/>
-      <c r="D113" s="11"/>
-      <c r="E113" s="11"/>
-      <c r="F113" s="11"/>
-      <c r="G113" s="11"/>
-      <c r="H113" s="11"/>
+      <c r="B113" s="9"/>
+      <c r="C113" s="9"/>
+      <c r="D113" s="9"/>
+      <c r="E113" s="9"/>
+      <c r="F113" s="9"/>
+      <c r="G113" s="9"/>
+      <c r="H113" s="9"/>
     </row>
     <row r="114" spans="1:8" ht="36" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
         <v>210</v>
       </c>
-      <c r="B114" s="9" t="s">
+      <c r="B114" s="7" t="s">
         <v>145</v>
       </c>
-      <c r="C114" s="11" t="s">
+      <c r="C114" s="9" t="s">
         <v>146</v>
       </c>
-      <c r="D114" s="11"/>
-      <c r="E114" s="12" t="s">
+      <c r="D114" s="9"/>
+      <c r="E114" s="10" t="s">
         <v>147</v>
       </c>
-      <c r="F114" s="11"/>
-      <c r="G114" s="11" t="s">
+      <c r="F114" s="9"/>
+      <c r="G114" s="9" t="s">
         <v>148</v>
       </c>
-      <c r="H114" s="11" t="s">
+      <c r="H114" s="9" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="115" spans="1:8" ht="18" x14ac:dyDescent="0.35">
-      <c r="B115" s="11"/>
-      <c r="C115" s="11"/>
-      <c r="D115" s="11"/>
-      <c r="E115" s="11"/>
-      <c r="F115" s="11"/>
-      <c r="G115" s="11"/>
-      <c r="H115" s="11"/>
+      <c r="B115" s="9"/>
+      <c r="C115" s="9"/>
+      <c r="D115" s="9"/>
+      <c r="E115" s="9"/>
+      <c r="F115" s="9"/>
+      <c r="G115" s="9"/>
+      <c r="H115" s="9"/>
     </row>
     <row r="116" spans="1:8" ht="18" x14ac:dyDescent="0.35">
-      <c r="B116" s="11"/>
-      <c r="C116" s="11"/>
-      <c r="D116" s="11"/>
-      <c r="E116" s="11"/>
-      <c r="F116" s="11"/>
-      <c r="G116" s="11"/>
-      <c r="H116" s="11"/>
+      <c r="B116" s="9"/>
+      <c r="C116" s="9"/>
+      <c r="D116" s="9"/>
+      <c r="E116" s="9"/>
+      <c r="F116" s="9"/>
+      <c r="G116" s="9"/>
+      <c r="H116" s="9"/>
     </row>
     <row r="117" spans="1:8" ht="54" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
         <v>211</v>
       </c>
-      <c r="B117" s="9" t="s">
+      <c r="B117" s="7" t="s">
         <v>145</v>
       </c>
-      <c r="C117" s="11" t="s">
+      <c r="C117" s="9" t="s">
         <v>149</v>
       </c>
-      <c r="D117" s="11"/>
-      <c r="E117" s="12" t="s">
+      <c r="D117" s="9"/>
+      <c r="E117" s="10" t="s">
         <v>150</v>
       </c>
-      <c r="F117" s="11"/>
-      <c r="G117" s="11" t="s">
+      <c r="F117" s="9"/>
+      <c r="G117" s="9" t="s">
         <v>151</v>
       </c>
-      <c r="H117" s="11" t="s">
+      <c r="H117" s="9" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="118" spans="1:8" ht="18" x14ac:dyDescent="0.35">
-      <c r="B118" s="11"/>
-      <c r="C118" s="11"/>
-      <c r="D118" s="11"/>
-      <c r="E118" s="11"/>
-      <c r="F118" s="11"/>
-      <c r="G118" s="11"/>
-      <c r="H118" s="11"/>
+      <c r="B118" s="9"/>
+      <c r="C118" s="9"/>
+      <c r="D118" s="9"/>
+      <c r="E118" s="9"/>
+      <c r="F118" s="9"/>
+      <c r="G118" s="9"/>
+      <c r="H118" s="9"/>
     </row>
     <row r="119" spans="1:8" ht="18" x14ac:dyDescent="0.35">
-      <c r="B119" s="11"/>
-      <c r="C119" s="11"/>
-      <c r="D119" s="11"/>
-      <c r="E119" s="11"/>
-      <c r="F119" s="11"/>
-      <c r="G119" s="11"/>
-      <c r="H119" s="11"/>
+      <c r="B119" s="9"/>
+      <c r="C119" s="9"/>
+      <c r="D119" s="9"/>
+      <c r="E119" s="9"/>
+      <c r="F119" s="9"/>
+      <c r="G119" s="9"/>
+      <c r="H119" s="9"/>
     </row>
     <row r="120" spans="1:8" ht="36" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
         <v>212</v>
       </c>
-      <c r="B120" s="9" t="s">
+      <c r="B120" s="7" t="s">
         <v>145</v>
       </c>
-      <c r="C120" s="11" t="s">
+      <c r="C120" s="9" t="s">
         <v>152</v>
       </c>
-      <c r="D120" s="11"/>
-      <c r="E120" s="12" t="s">
+      <c r="D120" s="9"/>
+      <c r="E120" s="10" t="s">
         <v>153</v>
       </c>
-      <c r="F120" s="11"/>
-      <c r="G120" s="11" t="s">
+      <c r="F120" s="9"/>
+      <c r="G120" s="9" t="s">
         <v>154</v>
       </c>
-      <c r="H120" s="11" t="s">
+      <c r="H120" s="9" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="121" spans="1:8" ht="18" x14ac:dyDescent="0.35">
-      <c r="B121" s="11"/>
-      <c r="C121" s="11"/>
-      <c r="D121" s="11"/>
-      <c r="E121" s="11"/>
-      <c r="F121" s="11"/>
-      <c r="G121" s="11"/>
-      <c r="H121" s="11"/>
+      <c r="B121" s="9"/>
+      <c r="C121" s="9"/>
+      <c r="D121" s="9"/>
+      <c r="E121" s="9"/>
+      <c r="F121" s="9"/>
+      <c r="G121" s="9"/>
+      <c r="H121" s="9"/>
     </row>
     <row r="122" spans="1:8" ht="18" x14ac:dyDescent="0.35">
-      <c r="B122" s="11"/>
-      <c r="C122" s="11"/>
-      <c r="D122" s="11"/>
-      <c r="E122" s="11"/>
-      <c r="F122" s="11"/>
-      <c r="G122" s="11"/>
-      <c r="H122" s="11"/>
+      <c r="B122" s="9"/>
+      <c r="C122" s="9"/>
+      <c r="D122" s="9"/>
+      <c r="E122" s="9"/>
+      <c r="F122" s="9"/>
+      <c r="G122" s="9"/>
+      <c r="H122" s="9"/>
     </row>
     <row r="123" spans="1:8" ht="18" x14ac:dyDescent="0.35">
-      <c r="B123" s="11"/>
-      <c r="C123" s="11"/>
-      <c r="D123" s="11"/>
-      <c r="E123" s="11"/>
-      <c r="F123" s="11"/>
-      <c r="G123" s="11"/>
-      <c r="H123" s="11"/>
+      <c r="B123" s="9"/>
+      <c r="C123" s="9"/>
+      <c r="D123" s="9"/>
+      <c r="E123" s="9"/>
+      <c r="F123" s="9"/>
+      <c r="G123" s="9"/>
+      <c r="H123" s="9"/>
     </row>
     <row r="124" spans="1:8" ht="36" x14ac:dyDescent="0.35">
       <c r="A124" t="s">
         <v>213</v>
       </c>
-      <c r="B124" s="9" t="s">
+      <c r="B124" s="7" t="s">
         <v>145</v>
       </c>
-      <c r="C124" s="11" t="s">
+      <c r="C124" s="9" t="s">
         <v>155</v>
       </c>
-      <c r="D124" s="11"/>
-      <c r="E124" s="12" t="s">
+      <c r="D124" s="9"/>
+      <c r="E124" s="10" t="s">
         <v>156</v>
       </c>
-      <c r="F124" s="11"/>
-      <c r="G124" s="11" t="s">
+      <c r="F124" s="9"/>
+      <c r="G124" s="9" t="s">
         <v>157</v>
       </c>
-      <c r="H124" s="11" t="s">
+      <c r="H124" s="9" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="125" spans="1:8" ht="18" x14ac:dyDescent="0.35">
-      <c r="B125" s="11"/>
-      <c r="C125" s="11"/>
-      <c r="D125" s="11"/>
-      <c r="E125" s="11"/>
-      <c r="F125" s="11"/>
-      <c r="G125" s="11"/>
-      <c r="H125" s="11"/>
+      <c r="B125" s="9"/>
+      <c r="C125" s="9"/>
+      <c r="D125" s="9"/>
+      <c r="E125" s="9"/>
+      <c r="F125" s="9"/>
+      <c r="G125" s="9"/>
+      <c r="H125" s="9"/>
     </row>
     <row r="126" spans="1:8" ht="36" x14ac:dyDescent="0.35">
       <c r="A126" t="s">
         <v>214</v>
       </c>
-      <c r="B126" s="9" t="s">
+      <c r="B126" s="7" t="s">
         <v>145</v>
       </c>
-      <c r="C126" s="11" t="s">
+      <c r="C126" s="9" t="s">
         <v>158</v>
       </c>
-      <c r="D126" s="11"/>
-      <c r="E126" s="12" t="s">
+      <c r="D126" s="9"/>
+      <c r="E126" s="10" t="s">
         <v>156</v>
       </c>
-      <c r="F126" s="11"/>
-      <c r="G126" s="11" t="s">
+      <c r="F126" s="9"/>
+      <c r="G126" s="9" t="s">
         <v>159</v>
       </c>
-      <c r="H126" s="11" t="s">
+      <c r="H126" s="9" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="127" spans="1:8" ht="18" x14ac:dyDescent="0.35">
-      <c r="B127" s="11"/>
-      <c r="C127" s="11"/>
-      <c r="D127" s="11"/>
-      <c r="E127" s="11"/>
-      <c r="F127" s="11"/>
-      <c r="G127" s="11"/>
-      <c r="H127" s="11"/>
+      <c r="B127" s="9"/>
+      <c r="C127" s="9"/>
+      <c r="D127" s="9"/>
+      <c r="E127" s="9"/>
+      <c r="F127" s="9"/>
+      <c r="G127" s="9"/>
+      <c r="H127" s="9"/>
     </row>
     <row r="128" spans="1:8" ht="18" x14ac:dyDescent="0.35">
-      <c r="B128" s="11"/>
-      <c r="C128" s="11"/>
-      <c r="D128" s="11"/>
-      <c r="E128" s="11"/>
-      <c r="F128" s="11"/>
-      <c r="G128" s="11"/>
-      <c r="H128" s="11"/>
+      <c r="B128" s="9"/>
+      <c r="C128" s="9"/>
+      <c r="D128" s="9"/>
+      <c r="E128" s="9"/>
+      <c r="F128" s="9"/>
+      <c r="G128" s="9"/>
+      <c r="H128" s="9"/>
     </row>
     <row r="129" spans="1:8" ht="72" x14ac:dyDescent="0.35">
       <c r="A129" t="s">
         <v>215</v>
       </c>
-      <c r="B129" s="9" t="s">
+      <c r="B129" s="7" t="s">
         <v>145</v>
       </c>
-      <c r="C129" s="11" t="s">
+      <c r="C129" s="9" t="s">
         <v>160</v>
       </c>
-      <c r="D129" s="11"/>
-      <c r="E129" s="12" t="s">
+      <c r="D129" s="9"/>
+      <c r="E129" s="10" t="s">
         <v>161</v>
       </c>
-      <c r="F129" s="11"/>
-      <c r="G129" s="11" t="s">
+      <c r="F129" s="9"/>
+      <c r="G129" s="9" t="s">
         <v>162</v>
       </c>
-      <c r="H129" s="11" t="s">
+      <c r="H129" s="9" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="130" spans="1:8" ht="18" x14ac:dyDescent="0.35">
-      <c r="B130" s="11"/>
-      <c r="C130" s="11"/>
-      <c r="D130" s="11"/>
-      <c r="E130" s="11"/>
-      <c r="F130" s="11"/>
-      <c r="G130" s="11"/>
-      <c r="H130" s="11"/>
+      <c r="B130" s="9"/>
+      <c r="C130" s="9"/>
+      <c r="D130" s="9"/>
+      <c r="E130" s="9"/>
+      <c r="F130" s="9"/>
+      <c r="G130" s="9"/>
+      <c r="H130" s="9"/>
     </row>
     <row r="131" spans="1:8" ht="18" x14ac:dyDescent="0.35">
-      <c r="B131" s="11"/>
-      <c r="C131" s="11"/>
-      <c r="D131" s="11"/>
-      <c r="E131" s="11"/>
-      <c r="F131" s="11"/>
-      <c r="G131" s="11"/>
-      <c r="H131" s="11"/>
+      <c r="B131" s="9"/>
+      <c r="C131" s="9"/>
+      <c r="D131" s="9"/>
+      <c r="E131" s="9"/>
+      <c r="F131" s="9"/>
+      <c r="G131" s="9"/>
+      <c r="H131" s="9"/>
     </row>
     <row r="132" spans="1:8" ht="36" x14ac:dyDescent="0.35">
       <c r="A132" t="s">
         <v>216</v>
       </c>
-      <c r="B132" s="9" t="s">
+      <c r="B132" s="7" t="s">
         <v>145</v>
       </c>
-      <c r="C132" s="11" t="s">
+      <c r="C132" s="9" t="s">
         <v>163</v>
       </c>
-      <c r="D132" s="11"/>
-      <c r="E132" s="12" t="s">
+      <c r="D132" s="9"/>
+      <c r="E132" s="10" t="s">
         <v>164</v>
       </c>
-      <c r="F132" s="11"/>
-      <c r="G132" s="11" t="s">
+      <c r="F132" s="9"/>
+      <c r="G132" s="9" t="s">
         <v>165</v>
       </c>
-      <c r="H132" s="11" t="s">
+      <c r="H132" s="9" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="133" spans="1:8" ht="18" x14ac:dyDescent="0.35">
-      <c r="B133" s="11"/>
-      <c r="C133" s="11"/>
-      <c r="D133" s="11"/>
-      <c r="E133" s="11"/>
-      <c r="F133" s="11"/>
-      <c r="G133" s="11"/>
-      <c r="H133" s="11"/>
+      <c r="B133" s="9"/>
+      <c r="C133" s="9"/>
+      <c r="D133" s="9"/>
+      <c r="E133" s="9"/>
+      <c r="F133" s="9"/>
+      <c r="G133" s="9"/>
+      <c r="H133" s="9"/>
     </row>
     <row r="134" spans="1:8" ht="18" x14ac:dyDescent="0.35">
-      <c r="B134" s="11"/>
-      <c r="C134" s="11"/>
-      <c r="D134" s="11"/>
-      <c r="E134" s="11"/>
-      <c r="F134" s="11"/>
-      <c r="G134" s="11"/>
-      <c r="H134" s="11"/>
+      <c r="B134" s="9"/>
+      <c r="C134" s="9"/>
+      <c r="D134" s="9"/>
+      <c r="E134" s="9"/>
+      <c r="F134" s="9"/>
+      <c r="G134" s="9"/>
+      <c r="H134" s="9"/>
     </row>
     <row r="135" spans="1:8" ht="36" x14ac:dyDescent="0.35">
       <c r="A135" t="s">
         <v>217</v>
       </c>
-      <c r="B135" s="9" t="s">
+      <c r="B135" s="7" t="s">
         <v>145</v>
       </c>
-      <c r="C135" s="11" t="s">
+      <c r="C135" s="9" t="s">
         <v>166</v>
       </c>
-      <c r="D135" s="11"/>
-      <c r="E135" s="12" t="s">
+      <c r="D135" s="9"/>
+      <c r="E135" s="10" t="s">
         <v>167</v>
       </c>
-      <c r="F135" s="11"/>
-      <c r="G135" s="11" t="s">
+      <c r="F135" s="9"/>
+      <c r="G135" s="9" t="s">
         <v>168</v>
       </c>
-      <c r="H135" s="11" t="s">
+      <c r="H135" s="9" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="136" spans="1:8" ht="18" x14ac:dyDescent="0.35">
-      <c r="B136" s="11"/>
-      <c r="C136" s="11"/>
-      <c r="D136" s="11"/>
-      <c r="E136" s="11"/>
-      <c r="F136" s="11"/>
-      <c r="G136" s="11"/>
-      <c r="H136" s="11"/>
+      <c r="B136" s="9"/>
+      <c r="C136" s="9"/>
+      <c r="D136" s="9"/>
+      <c r="E136" s="9"/>
+      <c r="F136" s="9"/>
+      <c r="G136" s="9"/>
+      <c r="H136" s="9"/>
     </row>
     <row r="137" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A137" s="5"/>
-      <c r="B137" s="13"/>
-      <c r="C137" s="13"/>
-      <c r="D137" s="13"/>
-      <c r="E137" s="13"/>
-      <c r="F137" s="13"/>
-      <c r="G137" s="13"/>
-      <c r="H137" s="13"/>
+      <c r="B137" s="11"/>
+      <c r="C137" s="11"/>
+      <c r="D137" s="11"/>
+      <c r="E137" s="11"/>
+      <c r="F137" s="11"/>
+      <c r="G137" s="11"/>
+      <c r="H137" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/Day 5 Assignment.xlsx
+++ b/Day 5 Assignment.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GUVI Assignment_01\GUVI-Assignments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{642A592B-3822-4F7A-81DE-38315B633E1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C934DFD1-70EF-4D8E-BECE-977AA7594FB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1256,8 +1256,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Y137"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" topLeftCell="A109" workbookViewId="0">
+      <selection activeCell="B117" sqref="B117"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
